--- a/output/경기동로_N_여름_배출량/경기동로_N_여름_배출량_PM25_재비산.xlsx
+++ b/output/경기동로_N_여름_배출량/경기동로_N_여름_배출량_PM25_재비산.xlsx
@@ -1,37 +1,72 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>DateTime</t>
+  </si>
+  <si>
+    <t>01_car_PM25_재비산</t>
+  </si>
+  <si>
+    <t>02_taxi_PM25_재비산</t>
+  </si>
+  <si>
+    <t>03_van_PM25_재비산</t>
+  </si>
+  <si>
+    <t>04_bus_PM25_재비산</t>
+  </si>
+  <si>
+    <t>05_LightTruck_PM25_재비산</t>
+  </si>
+  <si>
+    <t>06_HeavyTruck_PM25_재비산</t>
+  </si>
+  <si>
+    <t>07_SpecialVehicle_PM25_재비산</t>
+  </si>
+  <si>
+    <t>Total_PM25_재비산 (g/h)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +81,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,1302 +397,1423 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>DateTime</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>01_car_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>02_taxi_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>03_van_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>05_LightTruck_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>06_HeavyTruck_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>07_SpecialVehicle_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Total_PM25_재비산 (g/h)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
         <v>2024081209</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>7.002605973343729</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>0.275775102519542</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>2.934984233896784</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
+        <v>1.733412331527735</v>
+      </c>
+      <c r="F2">
         <v>2.302929731000189</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2">
         <v>5.858956066461814</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2">
         <v>0.2637376686475978</v>
       </c>
-      <c r="H2" t="n">
-        <v>18.63898877586965</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="I2">
+        <v>20.37240110739739</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
         <v>2024081210</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>6.097434514193951</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>0.6303430914732387</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>1.45136582994896</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
+        <v>1.242823935812338</v>
+      </c>
+      <c r="F3">
         <v>2.750970534696723</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3">
         <v>4.708731562616552</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3">
         <v>0.2285726461612514</v>
       </c>
-      <c r="H3" t="n">
-        <v>15.86741817909067</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="I3">
+        <v>17.11024211490301</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
         <v>2024081211</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>6.510819904986765</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>0.6106448698647001</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>2.547953345910395</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
+        <v>1.340941614955418</v>
+      </c>
+      <c r="F4">
         <v>2.285008098852327</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4">
         <v>5.068176720068198</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4">
         <v>0.281320179890771</v>
       </c>
-      <c r="H4" t="n">
-        <v>17.30392311957316</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="I4">
+        <v>18.64486473452857</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
         <v>2024081212</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>6.004779167981773</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>0.4235117645835822</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>1.999659587929677</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
+        <v>1.373647508003111</v>
+      </c>
+      <c r="F5">
         <v>1.926575455895099</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5">
         <v>4.816565109852046</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5">
         <v>0.3164852023771173</v>
       </c>
-      <c r="H5" t="n">
-        <v>15.48757628861929</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="I5">
+        <v>16.8612237966224</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
         <v>2024081213</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>6.20790819621617</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>0.4826064294091983</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>3.063994529892246</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
+        <v>1.373647508003111</v>
+      </c>
+      <c r="F6">
         <v>2.338772995295912</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6">
         <v>4.241452857929413</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6">
         <v>0.2989026911339442</v>
       </c>
-      <c r="H6" t="n">
-        <v>16.63363769987688</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="I6">
+        <v>18.00728520788</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
         <v>2024081214</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>6.396782555802541</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>0.4530590969963904</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>3.031741955893382</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
+        <v>1.144706256669259</v>
+      </c>
+      <c r="F7">
         <v>2.419420339961288</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7">
         <v>4.924398657087539</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7">
         <v>0.3692327361066369</v>
       </c>
-      <c r="H7" t="n">
-        <v>17.59463534184778</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="I7">
+        <v>18.73934159851704</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
         <v>2024081215</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>6.785222276461302</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>0.472757318604929</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>3.096247103891112</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
+        <v>0.9811767914307935</v>
+      </c>
+      <c r="F8">
         <v>2.446302788183079</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8">
         <v>2.803672228122832</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8">
         <v>0.4043977585929833</v>
       </c>
-      <c r="H8" t="n">
-        <v>16.00859947385624</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="I8">
+        <v>16.98977626528703</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
         <v>2024081216</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>7.939850436951564</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>0.4038135429750435</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>3.644540861871831</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
+        <v>1.373647508003111</v>
+      </c>
+      <c r="F9">
         <v>2.32981217922198</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9">
         <v>2.803672228122832</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9">
         <v>0.3164852023771173</v>
       </c>
-      <c r="H9" t="n">
-        <v>17.43817445152037</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="I9">
+        <v>18.81182195952348</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
         <v>2024081217</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>8.991132249743631</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>0.3841153213665048</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>2.515700771911529</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
+        <v>2.322118406386211</v>
+      </c>
+      <c r="F10">
         <v>1.577103629011802</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10">
         <v>1.545614177042075</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10">
         <v>0.5098928260520225</v>
       </c>
-      <c r="H10" t="n">
-        <v>15.52355897512756</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+      <c r="I10">
+        <v>17.84567738151378</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
         <v>2024081218</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>9.062405592983767</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>0.3742662105622354</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>2.225427605921738</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
+        <v>2.322118406386211</v>
+      </c>
+      <c r="F11">
         <v>1.281396698572089</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11">
         <v>0.3235006417064807</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11">
         <v>0.2109901349180782</v>
       </c>
-      <c r="H11" t="n">
-        <v>13.47798688466439</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
+      <c r="I11">
+        <v>15.8001052910506</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
         <v>2024081219</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>6.810167946595351</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>0.1772839944768484</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>1.580376125944422</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
+        <v>2.125883048100053</v>
+      </c>
+      <c r="F12">
         <v>0.8691991591712775</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12">
         <v>0.6470012834129614</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12">
         <v>0.05274753372951956</v>
       </c>
-      <c r="H12" t="n">
-        <v>10.13677604333038</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
+      <c r="I12">
+        <v>12.26265909143043</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
         <v>2024081220</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>5.573575441378923</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>0.2659259917152725</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>1.06433494196257</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
+        <v>2.387530192481598</v>
+      </c>
+      <c r="F13">
         <v>0.5286881483619111</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13">
         <v>0.6110567676677968</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13">
         <v>0.05274753372951956</v>
       </c>
-      <c r="H13" t="n">
-        <v>8.096328824815993</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
+      <c r="I13">
+        <v>10.48385901729759</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
         <v>2024081221</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>4.076835233335992</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>0.1477366620640403</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>0.9030720719682411</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
+        <v>1.798824117623121</v>
+      </c>
+      <c r="F14">
         <v>0.4749232519183268</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14">
         <v>0.3235006417064807</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14">
         <v>0.03516502248634638</v>
       </c>
-      <c r="H14" t="n">
-        <v>5.961232883479427</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
+      <c r="I14">
+        <v>7.760057001102549</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
         <v>2024081222</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>2.865188398253616</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>0.1772839944768484</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>0.4515360359841206</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
+        <v>0.9157650053354071</v>
+      </c>
+      <c r="F15">
         <v>0.2598636661439901</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15">
         <v>0.6829457991581259</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15">
         <v>0.03516502248634638</v>
       </c>
-      <c r="H15" t="n">
-        <v>4.471982916503047</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
+      <c r="I15">
+        <v>5.387747921838454</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
         <v>2024081223</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>1.706996570601346</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>0.2068313268896564</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>0.387030887986389</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
+        <v>0.3924707165723174</v>
+      </c>
+      <c r="F16">
         <v>0.2329812179221981</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16">
         <v>0.4313341889419742</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16">
         <v>0.03516502248634638</v>
       </c>
-      <c r="H16" t="n">
-        <v>3.00033921482791</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
+      <c r="I16">
+        <v>3.392809931400227</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17">
         <v>2024081300</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>1.257974508188466</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>0.3250206565408887</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>0.03225257399886577</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
+        <v>0.1962353582861587</v>
+      </c>
+      <c r="F17">
         <v>0.3673934590311586</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17">
         <v>0.5751122519226324</v>
       </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="n">
-        <v>2.557753449682012</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
+      <c r="I17">
+        <v>2.75398880796817</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18">
         <v>2024081301</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>0.7341154353734389</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>0.2363786593024645</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>0.03225257399886577</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
+        <v>0.1308235721907725</v>
+      </c>
+      <c r="F18">
         <v>0.2867461143657822</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18">
         <v>0.5391677361774678</v>
       </c>
-      <c r="G18" t="n">
+      <c r="H18">
         <v>0.01758251124317319</v>
       </c>
-      <c r="H18" t="n">
-        <v>1.846243030461192</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
+      <c r="I18">
+        <v>1.977066602651965</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19">
         <v>2024081302</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>0.5630594115971036</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>0.3348697673451581</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>0.2580205919909261</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
+        <v>0.03270589304769311</v>
+      </c>
+      <c r="F19">
         <v>0.1881771375525446</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19">
         <v>0.7188903149032903</v>
       </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="n">
-        <v>2.063017223389023</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
+      <c r="I19">
+        <v>2.095723116436716</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20">
         <v>2024081303</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>0.6984787637533693</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>0.1772839944768484</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>0.1935154439931945</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
+        <v>0.294353037429238</v>
+      </c>
+      <c r="F20">
         <v>0.2329812179221981</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20">
         <v>0.6110567676677968</v>
       </c>
-      <c r="G20" t="n">
+      <c r="H20">
         <v>0.01758251124317319</v>
       </c>
-      <c r="H20" t="n">
-        <v>1.93089869905658</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
+      <c r="I20">
+        <v>2.225251736485818</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21">
         <v>2024081304</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>1.029899809820019</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>0.04924555402134677</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>0.4192834619852548</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
+        <v>0.1635294652384655</v>
+      </c>
+      <c r="F21">
         <v>0.4301191715486734</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21">
         <v>1.042390956609771</v>
       </c>
-      <c r="G21" t="n">
+      <c r="H21">
         <v>0.01758251124317319</v>
       </c>
-      <c r="H21" t="n">
-        <v>2.988521465228238</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
+      <c r="I21">
+        <v>3.152050930466704</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22">
         <v>2024081305</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>2.729769046097351</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>0.09849110804269354</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>0.8385669239705097</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
+        <v>1.177412149716952</v>
+      </c>
+      <c r="F22">
         <v>0.9229640556148616</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22">
         <v>1.617503208532403</v>
       </c>
-      <c r="G22" t="n">
+      <c r="H22">
         <v>0.03516502248634638</v>
       </c>
-      <c r="H22" t="n">
-        <v>6.242459364744165</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
+      <c r="I22">
+        <v>7.419871514461117</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23">
         <v>2024081306</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>4.479529622642779</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>0.2166804376939258</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>1.677133847941019</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
+        <v>2.878118588196994</v>
+      </c>
+      <c r="F23">
         <v>1.630868525455386</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23">
         <v>2.156670944709871</v>
       </c>
-      <c r="G23" t="n">
+      <c r="H23">
         <v>0.2285726461612514</v>
       </c>
-      <c r="H23" t="n">
-        <v>10.38945602460423</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
+      <c r="I23">
+        <v>13.26757461280123</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24">
         <v>2024081307</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>7.530028713320764</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>0.2166804376939258</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>2.74146878990359</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
+        <v>3.630354128293934</v>
+      </c>
+      <c r="F24">
         <v>2.052026880930129</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24">
         <v>4.097674794948755</v>
       </c>
-      <c r="G24" t="n">
+      <c r="H24">
         <v>0.4571452923225028</v>
       </c>
-      <c r="H24" t="n">
-        <v>17.09502490911967</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
+      <c r="I24">
+        <v>20.7253790374136</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25">
         <v>2024081308</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>8.659711203676977</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>0.1969822160853871</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>2.515700771911529</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
+        <v>2.027765368956973</v>
+      </c>
+      <c r="F25">
         <v>1.702555054046832</v>
       </c>
-      <c r="F25" t="n">
+      <c r="G25">
         <v>2.372338039180859</v>
       </c>
-      <c r="G25" t="n">
+      <c r="H25">
         <v>0.2461551574044246</v>
       </c>
-      <c r="H25" t="n">
-        <v>15.69344244230601</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
+      <c r="I25">
+        <v>17.72120781126298</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26">
         <v>2024081309</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>7.002605973343729</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>0.275775102519542</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>2.934984233896784</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
+        <v>1.733412331527735</v>
+      </c>
+      <c r="F26">
         <v>2.302929731000189</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26">
         <v>5.858956066461814</v>
       </c>
-      <c r="G26" t="n">
+      <c r="H26">
         <v>0.2637376686475978</v>
       </c>
-      <c r="H26" t="n">
-        <v>18.63898877586965</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
+      <c r="I26">
+        <v>20.37240110739739</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27">
         <v>2024081310</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>6.02259750379181</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>0.5417010942348145</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>2.644711067906993</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
+        <v>1.340941614955418</v>
+      </c>
+      <c r="F27">
         <v>2.69720563825314</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27">
         <v>5.283843814539183</v>
       </c>
-      <c r="G27" t="n">
+      <c r="H27">
         <v>0.3868152473498101</v>
       </c>
-      <c r="H27" t="n">
-        <v>17.57687436607575</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
+      <c r="I27">
+        <v>18.91781598103116</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28">
         <v>2024081311</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>6.343327548372435</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>0.502304651017737</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>2.515700771911529</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
+        <v>1.896941796766201</v>
+      </c>
+      <c r="F28">
         <v>2.222282386334812</v>
       </c>
-      <c r="F28" t="n">
+      <c r="G28">
         <v>6.146512192423132</v>
       </c>
-      <c r="G28" t="n">
+      <c r="H28">
         <v>0.4043977585929833</v>
       </c>
-      <c r="H28" t="n">
-        <v>18.13452530865263</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
+      <c r="I28">
+        <v>20.03146710541883</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29">
         <v>2024081312</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>6.321945545400396</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>0.4629082078006597</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>2.128669883925141</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
+        <v>1.275529828860031</v>
+      </c>
+      <c r="F29">
         <v>2.034105248782268</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29">
         <v>4.600898015381059</v>
       </c>
-      <c r="G29" t="n">
+      <c r="H29">
         <v>0.2461551574044246</v>
       </c>
-      <c r="H29" t="n">
-        <v>15.79468205869395</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
+      <c r="I29">
+        <v>17.07021188755398</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30">
         <v>2024081313</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>6.689003263087112</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>0.4826064294091983</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>2.064164735927409</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
+        <v>1.504471080193884</v>
+      </c>
+      <c r="F30">
         <v>2.535910948922387</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30">
         <v>3.810118668987439</v>
       </c>
-      <c r="G30" t="n">
+      <c r="H30">
         <v>0.3692327361066369</v>
       </c>
-      <c r="H30" t="n">
-        <v>15.95103678244018</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
+      <c r="I30">
+        <v>17.45550786263406</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31">
         <v>2024081314</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>6.450237563232649</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>0.3841153213665048</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>2.934984233896784</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
+        <v>1.373647508003111</v>
+      </c>
+      <c r="F31">
         <v>2.401498707813427</v>
       </c>
-      <c r="F31" t="n">
+      <c r="G31">
         <v>3.630396090261616</v>
       </c>
-      <c r="G31" t="n">
+      <c r="H31">
         <v>0.4219802698361565</v>
       </c>
-      <c r="H31" t="n">
-        <v>16.22321218640714</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
+      <c r="I31">
+        <v>17.59685969441025</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32">
         <v>2024081315</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>6.831549949567395</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>0.443209986192121</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>2.902731659897919</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
+        <v>1.439059294098497</v>
+      </c>
+      <c r="F32">
         <v>2.338772995295912</v>
       </c>
-      <c r="F32" t="n">
+      <c r="G32">
         <v>3.594451574516451</v>
       </c>
-      <c r="G32" t="n">
+      <c r="H32">
         <v>0.2461551574044246</v>
       </c>
-      <c r="H32" t="n">
-        <v>16.35687132287422</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
+      <c r="I32">
+        <v>17.79593061697272</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33">
         <v>2024081316</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>7.939850436951564</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>0.4038135429750435</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>3.644540861871831</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
+        <v>1.373647508003111</v>
+      </c>
+      <c r="F33">
         <v>2.32981217922198</v>
       </c>
-      <c r="F33" t="n">
+      <c r="G33">
         <v>2.803672228122832</v>
       </c>
-      <c r="G33" t="n">
+      <c r="H33">
         <v>0.3164852023771173</v>
       </c>
-      <c r="H33" t="n">
-        <v>17.43817445152037</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
+      <c r="I33">
+        <v>18.81182195952348</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34">
         <v>2024081317</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>8.991132249743631</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>0.3841153213665048</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>2.515700771911529</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
+        <v>2.322118406386211</v>
+      </c>
+      <c r="F34">
         <v>1.577103629011802</v>
       </c>
-      <c r="F34" t="n">
+      <c r="G34">
         <v>1.545614177042075</v>
       </c>
-      <c r="G34" t="n">
+      <c r="H34">
         <v>0.5098928260520225</v>
       </c>
-      <c r="H34" t="n">
-        <v>15.52355897512756</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
+      <c r="I34">
+        <v>17.84567738151378</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35">
         <v>2024081318</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>9.062405592983767</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>0.3742662105622354</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>2.225427605921738</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
+        <v>2.322118406386211</v>
+      </c>
+      <c r="F35">
         <v>1.281396698572089</v>
       </c>
-      <c r="F35" t="n">
+      <c r="G35">
         <v>0.3235006417064807</v>
       </c>
-      <c r="G35" t="n">
+      <c r="H35">
         <v>0.2109901349180782</v>
       </c>
-      <c r="H35" t="n">
-        <v>13.47798688466439</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
+      <c r="I35">
+        <v>15.8001052910506</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36">
         <v>2024081319</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>6.810167946595351</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>0.1772839944768484</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>1.580376125944422</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
+        <v>2.125883048100053</v>
+      </c>
+      <c r="F36">
         <v>0.8691991591712775</v>
       </c>
-      <c r="F36" t="n">
+      <c r="G36">
         <v>0.6470012834129614</v>
       </c>
-      <c r="G36" t="n">
+      <c r="H36">
         <v>0.05274753372951956</v>
       </c>
-      <c r="H36" t="n">
-        <v>10.13677604333038</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
+      <c r="I36">
+        <v>12.26265909143043</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37">
         <v>2024081320</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>5.573575441378923</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>0.2659259917152725</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>1.06433494196257</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
+        <v>2.387530192481598</v>
+      </c>
+      <c r="F37">
         <v>0.5286881483619111</v>
       </c>
-      <c r="F37" t="n">
+      <c r="G37">
         <v>0.6110567676677968</v>
       </c>
-      <c r="G37" t="n">
+      <c r="H37">
         <v>0.05274753372951956</v>
       </c>
-      <c r="H37" t="n">
-        <v>8.096328824815993</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
+      <c r="I37">
+        <v>10.48385901729759</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38">
         <v>2024081321</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>4.076835233335992</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>0.1477366620640403</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>0.9030720719682411</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
+        <v>1.798824117623121</v>
+      </c>
+      <c r="F38">
         <v>0.4749232519183268</v>
       </c>
-      <c r="F38" t="n">
+      <c r="G38">
         <v>0.3235006417064807</v>
       </c>
-      <c r="G38" t="n">
+      <c r="H38">
         <v>0.03516502248634638</v>
       </c>
-      <c r="H38" t="n">
-        <v>5.961232883479427</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
+      <c r="I38">
+        <v>7.760057001102549</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39">
         <v>2024081322</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>2.865188398253616</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>0.1772839944768484</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>0.4515360359841206</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
+        <v>0.9157650053354071</v>
+      </c>
+      <c r="F39">
         <v>0.2598636661439901</v>
       </c>
-      <c r="F39" t="n">
+      <c r="G39">
         <v>0.6829457991581259</v>
       </c>
-      <c r="G39" t="n">
+      <c r="H39">
         <v>0.03516502248634638</v>
       </c>
-      <c r="H39" t="n">
-        <v>4.471982916503047</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
+      <c r="I39">
+        <v>5.387747921838454</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40">
         <v>2024081323</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>1.706996570601346</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>0.2068313268896564</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>0.387030887986389</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
+        <v>0.3924707165723174</v>
+      </c>
+      <c r="F40">
         <v>0.2329812179221981</v>
       </c>
-      <c r="F40" t="n">
+      <c r="G40">
         <v>0.4313341889419742</v>
       </c>
-      <c r="G40" t="n">
+      <c r="H40">
         <v>0.03516502248634638</v>
       </c>
-      <c r="H40" t="n">
-        <v>3.00033921482791</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
+      <c r="I40">
+        <v>3.392809931400227</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41">
         <v>2024081400</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>1.257974508188466</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>0.3250206565408887</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>0.03225257399886577</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
+        <v>0.1962353582861587</v>
+      </c>
+      <c r="F41">
         <v>0.3673934590311586</v>
       </c>
-      <c r="F41" t="n">
+      <c r="G41">
         <v>0.5751122519226324</v>
       </c>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="n">
-        <v>2.557753449682012</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
+      <c r="I41">
+        <v>2.75398880796817</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42">
         <v>2024081401</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>0.7341154353734389</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>0.2363786593024645</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>0.03225257399886577</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
+        <v>0.1308235721907725</v>
+      </c>
+      <c r="F42">
         <v>0.2867461143657822</v>
       </c>
-      <c r="F42" t="n">
+      <c r="G42">
         <v>0.5391677361774678</v>
       </c>
-      <c r="G42" t="n">
+      <c r="H42">
         <v>0.01758251124317319</v>
       </c>
-      <c r="H42" t="n">
-        <v>1.846243030461192</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
+      <c r="I42">
+        <v>1.977066602651965</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43">
         <v>2024081402</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>0.5630594115971036</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>0.3348697673451581</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>0.2580205919909261</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
+        <v>0.03270589304769311</v>
+      </c>
+      <c r="F43">
         <v>0.1881771375525446</v>
       </c>
-      <c r="F43" t="n">
+      <c r="G43">
         <v>0.7188903149032903</v>
       </c>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="n">
-        <v>2.063017223389023</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
+      <c r="I43">
+        <v>2.095723116436716</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44">
         <v>2024081403</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>0.6984787637533693</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>0.1772839944768484</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>0.1935154439931945</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
+        <v>0.294353037429238</v>
+      </c>
+      <c r="F44">
         <v>0.2329812179221981</v>
       </c>
-      <c r="F44" t="n">
+      <c r="G44">
         <v>0.6110567676677968</v>
       </c>
-      <c r="G44" t="n">
+      <c r="H44">
         <v>0.01758251124317319</v>
       </c>
-      <c r="H44" t="n">
-        <v>1.93089869905658</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
+      <c r="I44">
+        <v>2.225251736485818</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45">
         <v>2024081404</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>1.029899809820019</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>0.04924555402134677</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>0.4192834619852548</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
+        <v>0.1635294652384655</v>
+      </c>
+      <c r="F45">
         <v>0.4301191715486734</v>
       </c>
-      <c r="F45" t="n">
+      <c r="G45">
         <v>1.042390956609771</v>
       </c>
-      <c r="G45" t="n">
+      <c r="H45">
         <v>0.01758251124317319</v>
       </c>
-      <c r="H45" t="n">
-        <v>2.988521465228238</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
+      <c r="I45">
+        <v>3.152050930466704</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46">
         <v>2024081405</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>2.729769046097351</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>0.09849110804269354</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>0.8385669239705097</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
+        <v>1.177412149716952</v>
+      </c>
+      <c r="F46">
         <v>0.9229640556148616</v>
       </c>
-      <c r="F46" t="n">
+      <c r="G46">
         <v>1.617503208532403</v>
       </c>
-      <c r="G46" t="n">
+      <c r="H46">
         <v>0.03516502248634638</v>
       </c>
-      <c r="H46" t="n">
-        <v>6.242459364744165</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
+      <c r="I46">
+        <v>7.419871514461117</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47">
         <v>2024081406</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>4.479529622642779</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>0.2166804376939258</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>1.677133847941019</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
+        <v>2.878118588196994</v>
+      </c>
+      <c r="F47">
         <v>1.630868525455386</v>
       </c>
-      <c r="F47" t="n">
+      <c r="G47">
         <v>2.156670944709871</v>
       </c>
-      <c r="G47" t="n">
+      <c r="H47">
         <v>0.2285726461612514</v>
       </c>
-      <c r="H47" t="n">
-        <v>10.38945602460423</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
+      <c r="I47">
+        <v>13.26757461280123</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48">
         <v>2024081407</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>7.530028713320764</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>0.2166804376939258</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>2.74146878990359</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
+        <v>3.630354128293934</v>
+      </c>
+      <c r="F48">
         <v>2.052026880930129</v>
       </c>
-      <c r="F48" t="n">
+      <c r="G48">
         <v>4.097674794948755</v>
       </c>
-      <c r="G48" t="n">
+      <c r="H48">
         <v>0.4571452923225028</v>
       </c>
-      <c r="H48" t="n">
-        <v>17.09502490911967</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
+      <c r="I48">
+        <v>20.7253790374136</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49">
         <v>2024081408</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>8.659711203676977</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>0.1969822160853871</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>2.515700771911529</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
+        <v>2.027765368956973</v>
+      </c>
+      <c r="F49">
         <v>1.702555054046832</v>
       </c>
-      <c r="F49" t="n">
+      <c r="G49">
         <v>2.372338039180859</v>
       </c>
-      <c r="G49" t="n">
+      <c r="H49">
         <v>0.2461551574044246</v>
       </c>
-      <c r="H49" t="n">
-        <v>15.69344244230601</v>
+      <c r="I49">
+        <v>17.72120781126298</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/output/경기동로_N_여름_배출량/경기동로_N_여름_배출량_PM25_재비산.xlsx
+++ b/output/경기동로_N_여름_배출량/경기동로_N_여름_배출량_PM25_재비산.xlsx
@@ -438,28 +438,28 @@
         <v>2024081209</v>
       </c>
       <c r="B2">
-        <v>7.002605973343729</v>
+        <v>21.54033548454402</v>
       </c>
       <c r="C2">
-        <v>0.275775102519542</v>
+        <v>0.8482967982445224</v>
       </c>
       <c r="D2">
-        <v>2.934984233896784</v>
+        <v>9.028145419096953</v>
       </c>
       <c r="E2">
-        <v>1.733412331527735</v>
+        <v>5.332055422836265</v>
       </c>
       <c r="F2">
-        <v>2.302929731000189</v>
+        <v>7.083916929198299</v>
       </c>
       <c r="G2">
-        <v>5.858956066461814</v>
+        <v>18.02241618923046</v>
       </c>
       <c r="H2">
-        <v>0.2637376686475978</v>
+        <v>0.811269102417896</v>
       </c>
       <c r="I2">
-        <v>20.37240110739739</v>
+        <v>62.66643534556842</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024081210</v>
       </c>
       <c r="B3">
-        <v>6.097434514193951</v>
+        <v>18.75598677560042</v>
       </c>
       <c r="C3">
-        <v>0.6303430914732387</v>
+        <v>1.938964110273194</v>
       </c>
       <c r="D3">
-        <v>1.45136582994896</v>
+        <v>4.464467514938054</v>
       </c>
       <c r="E3">
-        <v>1.242823935812338</v>
+        <v>3.822983133354303</v>
       </c>
       <c r="F3">
-        <v>2.750970534696723</v>
+        <v>8.462110884295246</v>
       </c>
       <c r="G3">
-        <v>4.708731562616552</v>
+        <v>14.48427313367601</v>
       </c>
       <c r="H3">
-        <v>0.2285726461612514</v>
+        <v>0.7030998887621764</v>
       </c>
       <c r="I3">
-        <v>17.11024211490301</v>
+        <v>52.6318854408994</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024081211</v>
       </c>
       <c r="B4">
-        <v>6.510819904986765</v>
+        <v>20.02757909936994</v>
       </c>
       <c r="C4">
-        <v>0.6106448698647001</v>
+        <v>1.878371481827158</v>
       </c>
       <c r="D4">
-        <v>2.547953345910395</v>
+        <v>7.837620748446807</v>
       </c>
       <c r="E4">
-        <v>1.340941614955418</v>
+        <v>4.124797591250696</v>
       </c>
       <c r="F4">
-        <v>2.285008098852327</v>
+        <v>7.028789170994421</v>
       </c>
       <c r="G4">
-        <v>5.068176720068198</v>
+        <v>15.58994283853677</v>
       </c>
       <c r="H4">
-        <v>0.281320179890771</v>
+        <v>0.8653537092457557</v>
       </c>
       <c r="I4">
-        <v>18.64486473452857</v>
+        <v>57.35245463967155</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024081212</v>
       </c>
       <c r="B5">
-        <v>6.004779167981773</v>
+        <v>18.47097470303139</v>
       </c>
       <c r="C5">
-        <v>0.4235117645835822</v>
+        <v>1.302741511589802</v>
       </c>
       <c r="D5">
-        <v>1.999659587929677</v>
+        <v>6.151044131692429</v>
       </c>
       <c r="E5">
-        <v>1.373647508003111</v>
+        <v>4.225402410549491</v>
       </c>
       <c r="F5">
-        <v>1.926575455895099</v>
+        <v>5.926234006916865</v>
       </c>
       <c r="G5">
-        <v>4.816565109852046</v>
+        <v>14.81597404513424</v>
       </c>
       <c r="H5">
-        <v>0.3164852023771173</v>
+        <v>0.9735229229014749</v>
       </c>
       <c r="I5">
-        <v>16.8612237966224</v>
+        <v>51.8658937318157</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024081213</v>
       </c>
       <c r="B6">
-        <v>6.20790819621617</v>
+        <v>19.09580886212503</v>
       </c>
       <c r="C6">
-        <v>0.4826064294091983</v>
+        <v>1.484519396927914</v>
       </c>
       <c r="D6">
-        <v>3.063994529892246</v>
+        <v>9.424986975980337</v>
       </c>
       <c r="E6">
-        <v>1.373647508003111</v>
+        <v>4.225402410549491</v>
       </c>
       <c r="F6">
-        <v>2.338772995295912</v>
+        <v>7.194172445606054</v>
       </c>
       <c r="G6">
-        <v>4.241452857929413</v>
+        <v>13.04690251735702</v>
       </c>
       <c r="H6">
-        <v>0.2989026911339442</v>
+        <v>0.9194383160736154</v>
       </c>
       <c r="I6">
-        <v>18.00728520788</v>
+        <v>55.39123092461946</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024081214</v>
       </c>
       <c r="B7">
-        <v>6.396782555802541</v>
+        <v>19.6767950100542</v>
       </c>
       <c r="C7">
-        <v>0.4530590969963904</v>
+        <v>1.393630454258859</v>
       </c>
       <c r="D7">
-        <v>3.031741955893382</v>
+        <v>9.325776586759492</v>
       </c>
       <c r="E7">
-        <v>1.144706256669259</v>
+        <v>3.52116867545791</v>
       </c>
       <c r="F7">
-        <v>2.419420339961288</v>
+        <v>7.442247357523505</v>
       </c>
       <c r="G7">
-        <v>4.924398657087539</v>
+        <v>15.14767495659247</v>
       </c>
       <c r="H7">
-        <v>0.3692327361066369</v>
+        <v>1.135776743385054</v>
       </c>
       <c r="I7">
-        <v>18.73934159851704</v>
+        <v>57.64306978403149</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024081215</v>
       </c>
       <c r="B8">
-        <v>6.785222276461302</v>
+        <v>20.87165331428591</v>
       </c>
       <c r="C8">
-        <v>0.472757318604929</v>
+        <v>1.454223082704896</v>
       </c>
       <c r="D8">
-        <v>3.096247103891112</v>
+        <v>9.524197365201177</v>
       </c>
       <c r="E8">
-        <v>0.9811767914307935</v>
+        <v>3.018144578963924</v>
       </c>
       <c r="F8">
-        <v>2.446302788183079</v>
+        <v>7.524938994829323</v>
       </c>
       <c r="G8">
-        <v>2.803672228122832</v>
+        <v>8.624223697913962</v>
       </c>
       <c r="H8">
-        <v>0.4043977585929833</v>
+        <v>1.243945957040774</v>
       </c>
       <c r="I8">
-        <v>16.98977626528703</v>
+        <v>52.26132699093996</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024081216</v>
       </c>
       <c r="B9">
-        <v>7.939850436951564</v>
+        <v>24.42334221860767</v>
       </c>
       <c r="C9">
-        <v>0.4038135429750435</v>
+        <v>1.242148883143765</v>
       </c>
       <c r="D9">
-        <v>3.644540861871831</v>
+        <v>11.21077398195556</v>
       </c>
       <c r="E9">
-        <v>1.373647508003111</v>
+        <v>4.225402410549491</v>
       </c>
       <c r="F9">
-        <v>2.32981217922198</v>
+        <v>7.166608566504115</v>
       </c>
       <c r="G9">
-        <v>2.803672228122832</v>
+        <v>8.624223697913962</v>
       </c>
       <c r="H9">
-        <v>0.3164852023771173</v>
+        <v>0.9735229229014749</v>
       </c>
       <c r="I9">
-        <v>18.81182195952348</v>
+        <v>57.86602268157604</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024081217</v>
       </c>
       <c r="B10">
-        <v>8.991132249743631</v>
+        <v>27.65713304198705</v>
       </c>
       <c r="C10">
-        <v>0.3841153213665048</v>
+        <v>1.181556254697728</v>
       </c>
       <c r="D10">
-        <v>2.515700771911529</v>
+        <v>7.738410359225959</v>
       </c>
       <c r="E10">
-        <v>2.322118406386211</v>
+        <v>7.14294217021462</v>
       </c>
       <c r="F10">
-        <v>1.577103629011802</v>
+        <v>4.851242721941247</v>
       </c>
       <c r="G10">
-        <v>1.545614177042075</v>
+        <v>4.754379730901285</v>
       </c>
       <c r="H10">
-        <v>0.5098928260520225</v>
+        <v>1.568453598007932</v>
       </c>
       <c r="I10">
-        <v>17.84567738151378</v>
+        <v>54.89411787697583</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024081218</v>
       </c>
       <c r="B11">
-        <v>9.062405592983767</v>
+        <v>27.87637309780939</v>
       </c>
       <c r="C11">
-        <v>0.3742662105622354</v>
+        <v>1.151259940474709</v>
       </c>
       <c r="D11">
-        <v>2.225427605921738</v>
+        <v>6.845516856238347</v>
       </c>
       <c r="E11">
-        <v>2.322118406386211</v>
+        <v>7.14294217021462</v>
       </c>
       <c r="F11">
-        <v>1.281396698572089</v>
+        <v>3.941634711577264</v>
       </c>
       <c r="G11">
-        <v>0.3235006417064807</v>
+        <v>0.9951027343746879</v>
       </c>
       <c r="H11">
-        <v>0.2109901349180782</v>
+        <v>0.6490152819343167</v>
       </c>
       <c r="I11">
-        <v>15.8001052910506</v>
+        <v>48.60184479262334</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024081219</v>
       </c>
       <c r="B12">
-        <v>6.810167946595351</v>
+        <v>20.94838733382372</v>
       </c>
       <c r="C12">
-        <v>0.1772839944768484</v>
+        <v>0.5453336560143358</v>
       </c>
       <c r="D12">
-        <v>1.580376125944422</v>
+        <v>4.861309071821434</v>
       </c>
       <c r="E12">
-        <v>2.125883048100053</v>
+        <v>6.539313254421834</v>
       </c>
       <c r="F12">
-        <v>0.8691991591712775</v>
+        <v>2.673696272888074</v>
       </c>
       <c r="G12">
-        <v>0.6470012834129614</v>
+        <v>1.990205468749376</v>
       </c>
       <c r="H12">
-        <v>0.05274753372951956</v>
+        <v>0.1622538204835792</v>
       </c>
       <c r="I12">
-        <v>12.26265909143043</v>
+        <v>37.72049887820235</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,28 +757,28 @@
         <v>2024081220</v>
       </c>
       <c r="B13">
-        <v>5.573575441378923</v>
+        <v>17.14457236530628</v>
       </c>
       <c r="C13">
-        <v>0.2659259917152725</v>
+        <v>0.8180004840215038</v>
       </c>
       <c r="D13">
-        <v>1.06433494196257</v>
+        <v>3.273942844287906</v>
       </c>
       <c r="E13">
-        <v>2.387530192481598</v>
+        <v>7.344151808812213</v>
       </c>
       <c r="F13">
-        <v>0.5286881483619111</v>
+        <v>1.626268867014395</v>
       </c>
       <c r="G13">
-        <v>0.6110567676677968</v>
+        <v>1.879638498263299</v>
       </c>
       <c r="H13">
-        <v>0.05274753372951956</v>
+        <v>0.1622538204835792</v>
       </c>
       <c r="I13">
-        <v>10.48385901729759</v>
+        <v>32.24882868818918</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -786,28 +786,28 @@
         <v>2024081221</v>
       </c>
       <c r="B14">
-        <v>4.076835233335992</v>
+        <v>12.54053119303733</v>
       </c>
       <c r="C14">
-        <v>0.1477366620640403</v>
+        <v>0.4544447133452799</v>
       </c>
       <c r="D14">
-        <v>0.9030720719682411</v>
+        <v>2.777890898183678</v>
       </c>
       <c r="E14">
-        <v>1.798824117623121</v>
+        <v>5.533265061433859</v>
       </c>
       <c r="F14">
-        <v>0.4749232519183268</v>
+        <v>1.460885592402762</v>
       </c>
       <c r="G14">
-        <v>0.3235006417064807</v>
+        <v>0.9951027343746879</v>
       </c>
       <c r="H14">
-        <v>0.03516502248634638</v>
+        <v>0.1081692136557195</v>
       </c>
       <c r="I14">
-        <v>7.760057001102549</v>
+        <v>23.87028940643331</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -815,28 +815,28 @@
         <v>2024081222</v>
       </c>
       <c r="B15">
-        <v>2.865188398253616</v>
+        <v>8.813450244057705</v>
       </c>
       <c r="C15">
-        <v>0.1772839944768484</v>
+        <v>0.5453336560143358</v>
       </c>
       <c r="D15">
-        <v>0.4515360359841206</v>
+        <v>1.388945449091839</v>
       </c>
       <c r="E15">
-        <v>0.9157650053354071</v>
+        <v>2.816934940366329</v>
       </c>
       <c r="F15">
-        <v>0.2598636661439901</v>
+        <v>0.7993524939562283</v>
       </c>
       <c r="G15">
-        <v>0.6829457991581259</v>
+        <v>2.100772439235452</v>
       </c>
       <c r="H15">
-        <v>0.03516502248634638</v>
+        <v>0.1081692136557195</v>
       </c>
       <c r="I15">
-        <v>5.387747921838454</v>
+        <v>16.57295843637761</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -844,28 +844,28 @@
         <v>2024081223</v>
       </c>
       <c r="B16">
-        <v>1.706996570601346</v>
+        <v>5.250799336944826</v>
       </c>
       <c r="C16">
-        <v>0.2068313268896564</v>
+        <v>0.6362225986833919</v>
       </c>
       <c r="D16">
-        <v>0.387030887986389</v>
+        <v>1.190524670650147</v>
       </c>
       <c r="E16">
-        <v>0.3924707165723174</v>
+        <v>1.207257831585569</v>
       </c>
       <c r="F16">
-        <v>0.2329812179221981</v>
+        <v>0.7166608566504116</v>
       </c>
       <c r="G16">
-        <v>0.4313341889419742</v>
+        <v>1.326803645832917</v>
       </c>
       <c r="H16">
-        <v>0.03516502248634638</v>
+        <v>0.1081692136557195</v>
       </c>
       <c r="I16">
-        <v>3.392809931400227</v>
+        <v>10.43643815400298</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -873,25 +873,25 @@
         <v>2024081300</v>
       </c>
       <c r="B17">
-        <v>1.257974508188466</v>
+        <v>3.869586985264143</v>
       </c>
       <c r="C17">
-        <v>0.3250206565408887</v>
+        <v>0.9997783693596159</v>
       </c>
       <c r="D17">
-        <v>0.03225257399886577</v>
+        <v>0.09921038922084563</v>
       </c>
       <c r="E17">
-        <v>0.1962353582861587</v>
+        <v>0.6036289157927845</v>
       </c>
       <c r="F17">
-        <v>0.3673934590311586</v>
+        <v>1.130119043179495</v>
       </c>
       <c r="G17">
-        <v>0.5751122519226324</v>
+        <v>1.769071527777222</v>
       </c>
       <c r="I17">
-        <v>2.75398880796817</v>
+        <v>8.471395230594107</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -899,28 +899,28 @@
         <v>2024081301</v>
       </c>
       <c r="B18">
-        <v>0.7341154353734389</v>
+        <v>2.258172574970009</v>
       </c>
       <c r="C18">
-        <v>0.2363786593024645</v>
+        <v>0.7271115413524478</v>
       </c>
       <c r="D18">
-        <v>0.03225257399886577</v>
+        <v>0.09921038922084563</v>
       </c>
       <c r="E18">
-        <v>0.1308235721907725</v>
+        <v>0.4024192771951899</v>
       </c>
       <c r="F18">
-        <v>0.2867461143657822</v>
+        <v>0.8820441312620448</v>
       </c>
       <c r="G18">
-        <v>0.5391677361774678</v>
+        <v>1.658504557291146</v>
       </c>
       <c r="H18">
-        <v>0.01758251124317319</v>
+        <v>0.05408460682785973</v>
       </c>
       <c r="I18">
-        <v>1.977066602651965</v>
+        <v>6.081547078119543</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -928,25 +928,25 @@
         <v>2024081302</v>
       </c>
       <c r="B19">
-        <v>0.5630594115971036</v>
+        <v>1.731996440996414</v>
       </c>
       <c r="C19">
-        <v>0.3348697673451581</v>
+        <v>1.030074683582634</v>
       </c>
       <c r="D19">
-        <v>0.2580205919909261</v>
+        <v>0.793683113766765</v>
       </c>
       <c r="E19">
-        <v>0.03270589304769311</v>
+        <v>0.1006048192987975</v>
       </c>
       <c r="F19">
-        <v>0.1881771375525446</v>
+        <v>0.5788414611407171</v>
       </c>
       <c r="G19">
-        <v>0.7188903149032903</v>
+        <v>2.211339409721528</v>
       </c>
       <c r="I19">
-        <v>2.095723116436716</v>
+        <v>6.446539928506855</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -954,28 +954,28 @@
         <v>2024081303</v>
       </c>
       <c r="B20">
-        <v>0.6984787637533693</v>
+        <v>2.148552547058843</v>
       </c>
       <c r="C20">
-        <v>0.1772839944768484</v>
+        <v>0.5453336560143358</v>
       </c>
       <c r="D20">
-        <v>0.1935154439931945</v>
+        <v>0.5952623353250736</v>
       </c>
       <c r="E20">
-        <v>0.294353037429238</v>
+        <v>0.9054433736891769</v>
       </c>
       <c r="F20">
-        <v>0.2329812179221981</v>
+        <v>0.7166608566504116</v>
       </c>
       <c r="G20">
-        <v>0.6110567676677968</v>
+        <v>1.879638498263299</v>
       </c>
       <c r="H20">
-        <v>0.01758251124317319</v>
+        <v>0.05408460682785973</v>
       </c>
       <c r="I20">
-        <v>2.225251736485818</v>
+        <v>6.844975873828999</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -983,28 +983,28 @@
         <v>2024081304</v>
       </c>
       <c r="B21">
-        <v>1.029899809820019</v>
+        <v>3.168018806632681</v>
       </c>
       <c r="C21">
-        <v>0.04924555402134677</v>
+        <v>0.1514815711150933</v>
       </c>
       <c r="D21">
-        <v>0.4192834619852548</v>
+        <v>1.289735059870993</v>
       </c>
       <c r="E21">
-        <v>0.1635294652384655</v>
+        <v>0.5030240964939872</v>
       </c>
       <c r="F21">
-        <v>0.4301191715486734</v>
+        <v>1.323066196893068</v>
       </c>
       <c r="G21">
-        <v>1.042390956609771</v>
+        <v>3.206442144096216</v>
       </c>
       <c r="H21">
-        <v>0.01758251124317319</v>
+        <v>0.05408460682785973</v>
       </c>
       <c r="I21">
-        <v>3.152050930466704</v>
+        <v>9.695852481929897</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1012,28 +1012,28 @@
         <v>2024081305</v>
       </c>
       <c r="B22">
-        <v>2.729769046097351</v>
+        <v>8.396894137995279</v>
       </c>
       <c r="C22">
-        <v>0.09849110804269354</v>
+        <v>0.3029631422301866</v>
       </c>
       <c r="D22">
-        <v>0.8385669239705097</v>
+        <v>2.579470119741985</v>
       </c>
       <c r="E22">
-        <v>1.177412149716952</v>
+        <v>3.621773494756708</v>
       </c>
       <c r="F22">
-        <v>0.9229640556148616</v>
+        <v>2.839079547499707</v>
       </c>
       <c r="G22">
-        <v>1.617503208532403</v>
+        <v>4.975513671873439</v>
       </c>
       <c r="H22">
-        <v>0.03516502248634638</v>
+        <v>0.1081692136557195</v>
       </c>
       <c r="I22">
-        <v>7.419871514461117</v>
+        <v>22.82386332775303</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1041,28 +1041,28 @@
         <v>2024081306</v>
       </c>
       <c r="B23">
-        <v>4.479529622642779</v>
+        <v>13.7792375084335</v>
       </c>
       <c r="C23">
-        <v>0.2166804376939258</v>
+        <v>0.6665189129064105</v>
       </c>
       <c r="D23">
-        <v>1.677133847941019</v>
+        <v>5.158940239483971</v>
       </c>
       <c r="E23">
-        <v>2.878118588196994</v>
+        <v>8.853224098294174</v>
       </c>
       <c r="F23">
-        <v>1.630868525455386</v>
+        <v>5.016625996552881</v>
       </c>
       <c r="G23">
-        <v>2.156670944709871</v>
+        <v>6.634018229164585</v>
       </c>
       <c r="H23">
-        <v>0.2285726461612514</v>
+        <v>0.7030998887621764</v>
       </c>
       <c r="I23">
-        <v>13.26757461280123</v>
+        <v>40.8116648735977</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1070,28 +1070,28 @@
         <v>2024081307</v>
       </c>
       <c r="B24">
-        <v>7.530028713320764</v>
+        <v>23.16271189762928</v>
       </c>
       <c r="C24">
-        <v>0.2166804376939258</v>
+        <v>0.6665189129064105</v>
       </c>
       <c r="D24">
-        <v>2.74146878990359</v>
+        <v>8.432883083771877</v>
       </c>
       <c r="E24">
-        <v>3.630354128293934</v>
+        <v>11.16713494216652</v>
       </c>
       <c r="F24">
-        <v>2.052026880930129</v>
+        <v>6.31212831434401</v>
       </c>
       <c r="G24">
-        <v>4.097674794948755</v>
+        <v>12.60463463541271</v>
       </c>
       <c r="H24">
-        <v>0.4571452923225028</v>
+        <v>1.406199777524353</v>
       </c>
       <c r="I24">
-        <v>20.7253790374136</v>
+        <v>63.75221156375515</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1099,28 +1099,28 @@
         <v>2024081308</v>
       </c>
       <c r="B25">
-        <v>8.659711203676977</v>
+        <v>26.63766678241322</v>
       </c>
       <c r="C25">
-        <v>0.1969822160853871</v>
+        <v>0.6059262844603731</v>
       </c>
       <c r="D25">
-        <v>2.515700771911529</v>
+        <v>7.738410359225959</v>
       </c>
       <c r="E25">
-        <v>2.027765368956973</v>
+        <v>6.237498796525441</v>
       </c>
       <c r="F25">
-        <v>1.702555054046832</v>
+        <v>5.237137029368393</v>
       </c>
       <c r="G25">
-        <v>2.372338039180859</v>
+        <v>7.297420052081044</v>
       </c>
       <c r="H25">
-        <v>0.2461551574044246</v>
+        <v>0.7571844955900361</v>
       </c>
       <c r="I25">
-        <v>17.72120781126298</v>
+        <v>54.51124379966447</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1128,28 +1128,28 @@
         <v>2024081309</v>
       </c>
       <c r="B26">
-        <v>7.002605973343729</v>
+        <v>21.54033548454402</v>
       </c>
       <c r="C26">
-        <v>0.275775102519542</v>
+        <v>0.8482967982445224</v>
       </c>
       <c r="D26">
-        <v>2.934984233896784</v>
+        <v>9.028145419096953</v>
       </c>
       <c r="E26">
-        <v>1.733412331527735</v>
+        <v>5.332055422836265</v>
       </c>
       <c r="F26">
-        <v>2.302929731000189</v>
+        <v>7.083916929198299</v>
       </c>
       <c r="G26">
-        <v>5.858956066461814</v>
+        <v>18.02241618923046</v>
       </c>
       <c r="H26">
-        <v>0.2637376686475978</v>
+        <v>0.811269102417896</v>
       </c>
       <c r="I26">
-        <v>20.37240110739739</v>
+        <v>62.66643534556842</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1157,28 +1157,28 @@
         <v>2024081310</v>
       </c>
       <c r="B27">
-        <v>6.02259750379181</v>
+        <v>18.52578471698697</v>
       </c>
       <c r="C27">
-        <v>0.5417010942348145</v>
+        <v>1.666297282266026</v>
       </c>
       <c r="D27">
-        <v>2.644711067906993</v>
+        <v>8.135251916109343</v>
       </c>
       <c r="E27">
-        <v>1.340941614955418</v>
+        <v>4.124797591250696</v>
       </c>
       <c r="F27">
-        <v>2.69720563825314</v>
+        <v>8.296727609683611</v>
       </c>
       <c r="G27">
-        <v>5.283843814539183</v>
+        <v>16.25334466145323</v>
       </c>
       <c r="H27">
-        <v>0.3868152473498101</v>
+        <v>1.189861350212914</v>
       </c>
       <c r="I27">
-        <v>18.91781598103116</v>
+        <v>58.19206512796278</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1186,28 +1186,28 @@
         <v>2024081311</v>
       </c>
       <c r="B28">
-        <v>6.343327548372435</v>
+        <v>19.51236496818745</v>
       </c>
       <c r="C28">
-        <v>0.502304651017737</v>
+        <v>1.545112025373952</v>
       </c>
       <c r="D28">
-        <v>2.515700771911529</v>
+        <v>7.738410359225959</v>
       </c>
       <c r="E28">
-        <v>1.896941796766201</v>
+        <v>5.835079519330253</v>
       </c>
       <c r="F28">
-        <v>2.222282386334812</v>
+        <v>6.835842017280848</v>
       </c>
       <c r="G28">
-        <v>6.146512192423132</v>
+        <v>18.90695195311906</v>
       </c>
       <c r="H28">
-        <v>0.4043977585929833</v>
+        <v>1.243945957040774</v>
       </c>
       <c r="I28">
-        <v>20.03146710541883</v>
+        <v>61.6177067995583</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1215,28 +1215,28 @@
         <v>2024081312</v>
       </c>
       <c r="B29">
-        <v>6.321945545400396</v>
+        <v>19.44659295144075</v>
       </c>
       <c r="C29">
-        <v>0.4629082078006597</v>
+        <v>1.423926768481877</v>
       </c>
       <c r="D29">
-        <v>2.128669883925141</v>
+        <v>6.547885688575812</v>
       </c>
       <c r="E29">
-        <v>1.275529828860031</v>
+        <v>3.923587952653101</v>
       </c>
       <c r="F29">
-        <v>2.034105248782268</v>
+        <v>6.257000556140132</v>
       </c>
       <c r="G29">
-        <v>4.600898015381059</v>
+        <v>14.15257222221778</v>
       </c>
       <c r="H29">
-        <v>0.2461551574044246</v>
+        <v>0.7571844955900361</v>
       </c>
       <c r="I29">
-        <v>17.07021188755398</v>
+        <v>52.50875063509949</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1244,28 +1244,28 @@
         <v>2024081313</v>
       </c>
       <c r="B30">
-        <v>6.689003263087112</v>
+        <v>20.57567923892576</v>
       </c>
       <c r="C30">
-        <v>0.4826064294091983</v>
+        <v>1.484519396927914</v>
       </c>
       <c r="D30">
-        <v>2.064164735927409</v>
+        <v>6.34946491013412</v>
       </c>
       <c r="E30">
-        <v>1.504471080193884</v>
+        <v>4.627821687744682</v>
       </c>
       <c r="F30">
-        <v>2.535910948922387</v>
+        <v>7.80057778584871</v>
       </c>
       <c r="G30">
-        <v>3.810118668987439</v>
+        <v>11.7200988715241</v>
       </c>
       <c r="H30">
-        <v>0.3692327361066369</v>
+        <v>1.135776743385054</v>
       </c>
       <c r="I30">
-        <v>17.45550786263406</v>
+        <v>53.69393863449034</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1273,28 +1273,28 @@
         <v>2024081314</v>
       </c>
       <c r="B31">
-        <v>6.450237563232649</v>
+        <v>19.84122505192096</v>
       </c>
       <c r="C31">
-        <v>0.3841153213665048</v>
+        <v>1.181556254697728</v>
       </c>
       <c r="D31">
-        <v>2.934984233896784</v>
+        <v>9.028145419096953</v>
       </c>
       <c r="E31">
-        <v>1.373647508003111</v>
+        <v>4.225402410549491</v>
       </c>
       <c r="F31">
-        <v>2.401498707813427</v>
+        <v>7.387119599319627</v>
       </c>
       <c r="G31">
-        <v>3.630396090261616</v>
+        <v>11.16726401909372</v>
       </c>
       <c r="H31">
-        <v>0.4219802698361565</v>
+        <v>1.298030563868633</v>
       </c>
       <c r="I31">
-        <v>17.59685969441025</v>
+        <v>54.12874331854711</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1302,28 +1302,28 @@
         <v>2024081315</v>
       </c>
       <c r="B32">
-        <v>6.831549949567395</v>
+        <v>21.01415935057042</v>
       </c>
       <c r="C32">
-        <v>0.443209986192121</v>
+        <v>1.36333414003584</v>
       </c>
       <c r="D32">
-        <v>2.902731659897919</v>
+        <v>8.928935029876108</v>
       </c>
       <c r="E32">
-        <v>1.439059294098497</v>
+        <v>4.426612049147087</v>
       </c>
       <c r="F32">
-        <v>2.338772995295912</v>
+        <v>7.194172445606054</v>
       </c>
       <c r="G32">
-        <v>3.594451574516451</v>
+        <v>11.05669704860764</v>
       </c>
       <c r="H32">
-        <v>0.2461551574044246</v>
+        <v>0.7571844955900361</v>
       </c>
       <c r="I32">
-        <v>17.79593061697272</v>
+        <v>54.74109455943319</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1331,28 +1331,28 @@
         <v>2024081316</v>
       </c>
       <c r="B33">
-        <v>7.939850436951564</v>
+        <v>24.42334221860767</v>
       </c>
       <c r="C33">
-        <v>0.4038135429750435</v>
+        <v>1.242148883143765</v>
       </c>
       <c r="D33">
-        <v>3.644540861871831</v>
+        <v>11.21077398195556</v>
       </c>
       <c r="E33">
-        <v>1.373647508003111</v>
+        <v>4.225402410549491</v>
       </c>
       <c r="F33">
-        <v>2.32981217922198</v>
+        <v>7.166608566504115</v>
       </c>
       <c r="G33">
-        <v>2.803672228122832</v>
+        <v>8.624223697913962</v>
       </c>
       <c r="H33">
-        <v>0.3164852023771173</v>
+        <v>0.9735229229014749</v>
       </c>
       <c r="I33">
-        <v>18.81182195952348</v>
+        <v>57.86602268157604</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1360,28 +1360,28 @@
         <v>2024081317</v>
       </c>
       <c r="B34">
-        <v>8.991132249743631</v>
+        <v>27.65713304198705</v>
       </c>
       <c r="C34">
-        <v>0.3841153213665048</v>
+        <v>1.181556254697728</v>
       </c>
       <c r="D34">
-        <v>2.515700771911529</v>
+        <v>7.738410359225959</v>
       </c>
       <c r="E34">
-        <v>2.322118406386211</v>
+        <v>7.14294217021462</v>
       </c>
       <c r="F34">
-        <v>1.577103629011802</v>
+        <v>4.851242721941247</v>
       </c>
       <c r="G34">
-        <v>1.545614177042075</v>
+        <v>4.754379730901285</v>
       </c>
       <c r="H34">
-        <v>0.5098928260520225</v>
+        <v>1.568453598007932</v>
       </c>
       <c r="I34">
-        <v>17.84567738151378</v>
+        <v>54.89411787697583</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1389,28 +1389,28 @@
         <v>2024081318</v>
       </c>
       <c r="B35">
-        <v>9.062405592983767</v>
+        <v>27.87637309780939</v>
       </c>
       <c r="C35">
-        <v>0.3742662105622354</v>
+        <v>1.151259940474709</v>
       </c>
       <c r="D35">
-        <v>2.225427605921738</v>
+        <v>6.845516856238347</v>
       </c>
       <c r="E35">
-        <v>2.322118406386211</v>
+        <v>7.14294217021462</v>
       </c>
       <c r="F35">
-        <v>1.281396698572089</v>
+        <v>3.941634711577264</v>
       </c>
       <c r="G35">
-        <v>0.3235006417064807</v>
+        <v>0.9951027343746879</v>
       </c>
       <c r="H35">
-        <v>0.2109901349180782</v>
+        <v>0.6490152819343167</v>
       </c>
       <c r="I35">
-        <v>15.8001052910506</v>
+        <v>48.60184479262334</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1418,28 +1418,28 @@
         <v>2024081319</v>
       </c>
       <c r="B36">
-        <v>6.810167946595351</v>
+        <v>20.94838733382372</v>
       </c>
       <c r="C36">
-        <v>0.1772839944768484</v>
+        <v>0.5453336560143358</v>
       </c>
       <c r="D36">
-        <v>1.580376125944422</v>
+        <v>4.861309071821434</v>
       </c>
       <c r="E36">
-        <v>2.125883048100053</v>
+        <v>6.539313254421834</v>
       </c>
       <c r="F36">
-        <v>0.8691991591712775</v>
+        <v>2.673696272888074</v>
       </c>
       <c r="G36">
-        <v>0.6470012834129614</v>
+        <v>1.990205468749376</v>
       </c>
       <c r="H36">
-        <v>0.05274753372951956</v>
+        <v>0.1622538204835792</v>
       </c>
       <c r="I36">
-        <v>12.26265909143043</v>
+        <v>37.72049887820235</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1447,28 +1447,28 @@
         <v>2024081320</v>
       </c>
       <c r="B37">
-        <v>5.573575441378923</v>
+        <v>17.14457236530628</v>
       </c>
       <c r="C37">
-        <v>0.2659259917152725</v>
+        <v>0.8180004840215038</v>
       </c>
       <c r="D37">
-        <v>1.06433494196257</v>
+        <v>3.273942844287906</v>
       </c>
       <c r="E37">
-        <v>2.387530192481598</v>
+        <v>7.344151808812213</v>
       </c>
       <c r="F37">
-        <v>0.5286881483619111</v>
+        <v>1.626268867014395</v>
       </c>
       <c r="G37">
-        <v>0.6110567676677968</v>
+        <v>1.879638498263299</v>
       </c>
       <c r="H37">
-        <v>0.05274753372951956</v>
+        <v>0.1622538204835792</v>
       </c>
       <c r="I37">
-        <v>10.48385901729759</v>
+        <v>32.24882868818918</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1476,28 +1476,28 @@
         <v>2024081321</v>
       </c>
       <c r="B38">
-        <v>4.076835233335992</v>
+        <v>12.54053119303733</v>
       </c>
       <c r="C38">
-        <v>0.1477366620640403</v>
+        <v>0.4544447133452799</v>
       </c>
       <c r="D38">
-        <v>0.9030720719682411</v>
+        <v>2.777890898183678</v>
       </c>
       <c r="E38">
-        <v>1.798824117623121</v>
+        <v>5.533265061433859</v>
       </c>
       <c r="F38">
-        <v>0.4749232519183268</v>
+        <v>1.460885592402762</v>
       </c>
       <c r="G38">
-        <v>0.3235006417064807</v>
+        <v>0.9951027343746879</v>
       </c>
       <c r="H38">
-        <v>0.03516502248634638</v>
+        <v>0.1081692136557195</v>
       </c>
       <c r="I38">
-        <v>7.760057001102549</v>
+        <v>23.87028940643331</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1505,28 +1505,28 @@
         <v>2024081322</v>
       </c>
       <c r="B39">
-        <v>2.865188398253616</v>
+        <v>8.813450244057705</v>
       </c>
       <c r="C39">
-        <v>0.1772839944768484</v>
+        <v>0.5453336560143358</v>
       </c>
       <c r="D39">
-        <v>0.4515360359841206</v>
+        <v>1.388945449091839</v>
       </c>
       <c r="E39">
-        <v>0.9157650053354071</v>
+        <v>2.816934940366329</v>
       </c>
       <c r="F39">
-        <v>0.2598636661439901</v>
+        <v>0.7993524939562283</v>
       </c>
       <c r="G39">
-        <v>0.6829457991581259</v>
+        <v>2.100772439235452</v>
       </c>
       <c r="H39">
-        <v>0.03516502248634638</v>
+        <v>0.1081692136557195</v>
       </c>
       <c r="I39">
-        <v>5.387747921838454</v>
+        <v>16.57295843637761</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1534,28 +1534,28 @@
         <v>2024081323</v>
       </c>
       <c r="B40">
-        <v>1.706996570601346</v>
+        <v>5.250799336944826</v>
       </c>
       <c r="C40">
-        <v>0.2068313268896564</v>
+        <v>0.6362225986833919</v>
       </c>
       <c r="D40">
-        <v>0.387030887986389</v>
+        <v>1.190524670650147</v>
       </c>
       <c r="E40">
-        <v>0.3924707165723174</v>
+        <v>1.207257831585569</v>
       </c>
       <c r="F40">
-        <v>0.2329812179221981</v>
+        <v>0.7166608566504116</v>
       </c>
       <c r="G40">
-        <v>0.4313341889419742</v>
+        <v>1.326803645832917</v>
       </c>
       <c r="H40">
-        <v>0.03516502248634638</v>
+        <v>0.1081692136557195</v>
       </c>
       <c r="I40">
-        <v>3.392809931400227</v>
+        <v>10.43643815400298</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1563,25 +1563,25 @@
         <v>2024081400</v>
       </c>
       <c r="B41">
-        <v>1.257974508188466</v>
+        <v>3.869586985264143</v>
       </c>
       <c r="C41">
-        <v>0.3250206565408887</v>
+        <v>0.9997783693596159</v>
       </c>
       <c r="D41">
-        <v>0.03225257399886577</v>
+        <v>0.09921038922084563</v>
       </c>
       <c r="E41">
-        <v>0.1962353582861587</v>
+        <v>0.6036289157927845</v>
       </c>
       <c r="F41">
-        <v>0.3673934590311586</v>
+        <v>1.130119043179495</v>
       </c>
       <c r="G41">
-        <v>0.5751122519226324</v>
+        <v>1.769071527777222</v>
       </c>
       <c r="I41">
-        <v>2.75398880796817</v>
+        <v>8.471395230594107</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1589,28 +1589,28 @@
         <v>2024081401</v>
       </c>
       <c r="B42">
-        <v>0.7341154353734389</v>
+        <v>2.258172574970009</v>
       </c>
       <c r="C42">
-        <v>0.2363786593024645</v>
+        <v>0.7271115413524478</v>
       </c>
       <c r="D42">
-        <v>0.03225257399886577</v>
+        <v>0.09921038922084563</v>
       </c>
       <c r="E42">
-        <v>0.1308235721907725</v>
+        <v>0.4024192771951899</v>
       </c>
       <c r="F42">
-        <v>0.2867461143657822</v>
+        <v>0.8820441312620448</v>
       </c>
       <c r="G42">
-        <v>0.5391677361774678</v>
+        <v>1.658504557291146</v>
       </c>
       <c r="H42">
-        <v>0.01758251124317319</v>
+        <v>0.05408460682785973</v>
       </c>
       <c r="I42">
-        <v>1.977066602651965</v>
+        <v>6.081547078119543</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1618,25 +1618,25 @@
         <v>2024081402</v>
       </c>
       <c r="B43">
-        <v>0.5630594115971036</v>
+        <v>1.731996440996414</v>
       </c>
       <c r="C43">
-        <v>0.3348697673451581</v>
+        <v>1.030074683582634</v>
       </c>
       <c r="D43">
-        <v>0.2580205919909261</v>
+        <v>0.793683113766765</v>
       </c>
       <c r="E43">
-        <v>0.03270589304769311</v>
+        <v>0.1006048192987975</v>
       </c>
       <c r="F43">
-        <v>0.1881771375525446</v>
+        <v>0.5788414611407171</v>
       </c>
       <c r="G43">
-        <v>0.7188903149032903</v>
+        <v>2.211339409721528</v>
       </c>
       <c r="I43">
-        <v>2.095723116436716</v>
+        <v>6.446539928506855</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1644,28 +1644,28 @@
         <v>2024081403</v>
       </c>
       <c r="B44">
-        <v>0.6984787637533693</v>
+        <v>2.148552547058843</v>
       </c>
       <c r="C44">
-        <v>0.1772839944768484</v>
+        <v>0.5453336560143358</v>
       </c>
       <c r="D44">
-        <v>0.1935154439931945</v>
+        <v>0.5952623353250736</v>
       </c>
       <c r="E44">
-        <v>0.294353037429238</v>
+        <v>0.9054433736891769</v>
       </c>
       <c r="F44">
-        <v>0.2329812179221981</v>
+        <v>0.7166608566504116</v>
       </c>
       <c r="G44">
-        <v>0.6110567676677968</v>
+        <v>1.879638498263299</v>
       </c>
       <c r="H44">
-        <v>0.01758251124317319</v>
+        <v>0.05408460682785973</v>
       </c>
       <c r="I44">
-        <v>2.225251736485818</v>
+        <v>6.844975873828999</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1673,28 +1673,28 @@
         <v>2024081404</v>
       </c>
       <c r="B45">
-        <v>1.029899809820019</v>
+        <v>3.168018806632681</v>
       </c>
       <c r="C45">
-        <v>0.04924555402134677</v>
+        <v>0.1514815711150933</v>
       </c>
       <c r="D45">
-        <v>0.4192834619852548</v>
+        <v>1.289735059870993</v>
       </c>
       <c r="E45">
-        <v>0.1635294652384655</v>
+        <v>0.5030240964939872</v>
       </c>
       <c r="F45">
-        <v>0.4301191715486734</v>
+        <v>1.323066196893068</v>
       </c>
       <c r="G45">
-        <v>1.042390956609771</v>
+        <v>3.206442144096216</v>
       </c>
       <c r="H45">
-        <v>0.01758251124317319</v>
+        <v>0.05408460682785973</v>
       </c>
       <c r="I45">
-        <v>3.152050930466704</v>
+        <v>9.695852481929897</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1702,28 +1702,28 @@
         <v>2024081405</v>
       </c>
       <c r="B46">
-        <v>2.729769046097351</v>
+        <v>8.396894137995279</v>
       </c>
       <c r="C46">
-        <v>0.09849110804269354</v>
+        <v>0.3029631422301866</v>
       </c>
       <c r="D46">
-        <v>0.8385669239705097</v>
+        <v>2.579470119741985</v>
       </c>
       <c r="E46">
-        <v>1.177412149716952</v>
+        <v>3.621773494756708</v>
       </c>
       <c r="F46">
-        <v>0.9229640556148616</v>
+        <v>2.839079547499707</v>
       </c>
       <c r="G46">
-        <v>1.617503208532403</v>
+        <v>4.975513671873439</v>
       </c>
       <c r="H46">
-        <v>0.03516502248634638</v>
+        <v>0.1081692136557195</v>
       </c>
       <c r="I46">
-        <v>7.419871514461117</v>
+        <v>22.82386332775303</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1731,28 +1731,28 @@
         <v>2024081406</v>
       </c>
       <c r="B47">
-        <v>4.479529622642779</v>
+        <v>13.7792375084335</v>
       </c>
       <c r="C47">
-        <v>0.2166804376939258</v>
+        <v>0.6665189129064105</v>
       </c>
       <c r="D47">
-        <v>1.677133847941019</v>
+        <v>5.158940239483971</v>
       </c>
       <c r="E47">
-        <v>2.878118588196994</v>
+        <v>8.853224098294174</v>
       </c>
       <c r="F47">
-        <v>1.630868525455386</v>
+        <v>5.016625996552881</v>
       </c>
       <c r="G47">
-        <v>2.156670944709871</v>
+        <v>6.634018229164585</v>
       </c>
       <c r="H47">
-        <v>0.2285726461612514</v>
+        <v>0.7030998887621764</v>
       </c>
       <c r="I47">
-        <v>13.26757461280123</v>
+        <v>40.8116648735977</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1760,28 +1760,28 @@
         <v>2024081407</v>
       </c>
       <c r="B48">
-        <v>7.530028713320764</v>
+        <v>23.16271189762928</v>
       </c>
       <c r="C48">
-        <v>0.2166804376939258</v>
+        <v>0.6665189129064105</v>
       </c>
       <c r="D48">
-        <v>2.74146878990359</v>
+        <v>8.432883083771877</v>
       </c>
       <c r="E48">
-        <v>3.630354128293934</v>
+        <v>11.16713494216652</v>
       </c>
       <c r="F48">
-        <v>2.052026880930129</v>
+        <v>6.31212831434401</v>
       </c>
       <c r="G48">
-        <v>4.097674794948755</v>
+        <v>12.60463463541271</v>
       </c>
       <c r="H48">
-        <v>0.4571452923225028</v>
+        <v>1.406199777524353</v>
       </c>
       <c r="I48">
-        <v>20.7253790374136</v>
+        <v>63.75221156375515</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1789,28 +1789,28 @@
         <v>2024081408</v>
       </c>
       <c r="B49">
-        <v>8.659711203676977</v>
+        <v>26.63766678241322</v>
       </c>
       <c r="C49">
-        <v>0.1969822160853871</v>
+        <v>0.6059262844603731</v>
       </c>
       <c r="D49">
-        <v>2.515700771911529</v>
+        <v>7.738410359225959</v>
       </c>
       <c r="E49">
-        <v>2.027765368956973</v>
+        <v>6.237498796525441</v>
       </c>
       <c r="F49">
-        <v>1.702555054046832</v>
+        <v>5.237137029368393</v>
       </c>
       <c r="G49">
-        <v>2.372338039180859</v>
+        <v>7.297420052081044</v>
       </c>
       <c r="H49">
-        <v>0.2461551574044246</v>
+        <v>0.7571844955900361</v>
       </c>
       <c r="I49">
-        <v>17.72120781126298</v>
+        <v>54.51124379966447</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기동로_N_여름_배출량/경기동로_N_여름_배출량_PM25_재비산.xlsx
+++ b/output/경기동로_N_여름_배출량/경기동로_N_여름_배출량_PM25_재비산.xlsx
@@ -438,28 +438,28 @@
         <v>2024081209</v>
       </c>
       <c r="B2">
-        <v>21.54033548454402</v>
+        <v>6.736347191087312</v>
       </c>
       <c r="C2">
-        <v>0.8482967982445224</v>
+        <v>0.2652893571765936</v>
       </c>
       <c r="D2">
-        <v>9.028145419096953</v>
+        <v>2.823387875193485</v>
       </c>
       <c r="E2">
-        <v>5.332055422836265</v>
+        <v>1.667503117401205</v>
       </c>
       <c r="F2">
-        <v>7.083916929198299</v>
+        <v>2.215365862901322</v>
       </c>
       <c r="G2">
-        <v>18.02241618923046</v>
+        <v>5.636182071539312</v>
       </c>
       <c r="H2">
-        <v>0.811269102417896</v>
+        <v>0.2537096204100465</v>
       </c>
       <c r="I2">
-        <v>62.66643534556842</v>
+        <v>19.59778509570927</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024081210</v>
       </c>
       <c r="B3">
-        <v>18.75598677560042</v>
+        <v>5.865592897684679</v>
       </c>
       <c r="C3">
-        <v>1.938964110273194</v>
+        <v>0.6063756735464995</v>
       </c>
       <c r="D3">
-        <v>4.464467514938054</v>
+        <v>1.396180817403372</v>
       </c>
       <c r="E3">
-        <v>3.822983133354303</v>
+        <v>1.195568272853694</v>
       </c>
       <c r="F3">
-        <v>8.462110884295246</v>
+        <v>2.646370894594186</v>
       </c>
       <c r="G3">
-        <v>14.48427313367601</v>
+        <v>4.529692339703375</v>
       </c>
       <c r="H3">
-        <v>0.7030998887621764</v>
+        <v>0.2198816710220403</v>
       </c>
       <c r="I3">
-        <v>52.6318854408994</v>
+        <v>16.45966256680785</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024081211</v>
       </c>
       <c r="B4">
-        <v>20.02757909936994</v>
+        <v>6.263260212781944</v>
       </c>
       <c r="C4">
-        <v>1.878371481827158</v>
+        <v>0.5874264337481715</v>
       </c>
       <c r="D4">
-        <v>7.837620748446807</v>
+        <v>2.451072990552585</v>
       </c>
       <c r="E4">
-        <v>4.124797591250696</v>
+        <v>1.289955241763197</v>
       </c>
       <c r="F4">
-        <v>7.028789170994421</v>
+        <v>2.198125661633608</v>
       </c>
       <c r="G4">
-        <v>15.58994283853677</v>
+        <v>4.875470380902106</v>
       </c>
       <c r="H4">
-        <v>0.8653537092457557</v>
+        <v>0.2706235951040497</v>
       </c>
       <c r="I4">
-        <v>57.35245463967155</v>
+        <v>17.93593451648566</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024081212</v>
       </c>
       <c r="B5">
-        <v>18.47097470303139</v>
+        <v>5.776460568438741</v>
       </c>
       <c r="C5">
-        <v>1.302741511589802</v>
+        <v>0.4074086556640544</v>
       </c>
       <c r="D5">
-        <v>6.151044131692429</v>
+        <v>1.923626903977979</v>
       </c>
       <c r="E5">
-        <v>4.225402410549491</v>
+        <v>1.32141756473303</v>
       </c>
       <c r="F5">
-        <v>5.926234006916865</v>
+        <v>1.853321636279316</v>
       </c>
       <c r="G5">
-        <v>14.81597404513424</v>
+        <v>4.633425752062993</v>
       </c>
       <c r="H5">
-        <v>0.9735229229014749</v>
+        <v>0.3044515444920559</v>
       </c>
       <c r="I5">
-        <v>51.8658937318157</v>
+        <v>16.22011262564817</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024081213</v>
       </c>
       <c r="B6">
-        <v>19.09580886212503</v>
+        <v>5.971866059477915</v>
       </c>
       <c r="C6">
-        <v>1.484519396927914</v>
+        <v>0.4642563750590387</v>
       </c>
       <c r="D6">
-        <v>9.424986975980337</v>
+        <v>2.94749283674045</v>
       </c>
       <c r="E6">
-        <v>4.225402410549491</v>
+        <v>1.32141756473303</v>
       </c>
       <c r="F6">
-        <v>7.194172445606054</v>
+        <v>2.249846265436751</v>
       </c>
       <c r="G6">
-        <v>13.04690251735702</v>
+        <v>4.080180886145024</v>
       </c>
       <c r="H6">
-        <v>0.9194383160736154</v>
+        <v>0.2875375697980528</v>
       </c>
       <c r="I6">
-        <v>55.39123092461946</v>
+        <v>17.32259755739026</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024081214</v>
       </c>
       <c r="B7">
-        <v>19.6767950100542</v>
+        <v>6.153558884479253</v>
       </c>
       <c r="C7">
-        <v>1.393630454258859</v>
+        <v>0.4358325153615465</v>
       </c>
       <c r="D7">
-        <v>9.325776586759492</v>
+        <v>2.916466596353709</v>
       </c>
       <c r="E7">
-        <v>3.52116867545791</v>
+        <v>1.101181303944192</v>
       </c>
       <c r="F7">
-        <v>7.442247357523505</v>
+        <v>2.327427171141467</v>
       </c>
       <c r="G7">
-        <v>15.14767495659247</v>
+        <v>4.737159164422614</v>
       </c>
       <c r="H7">
-        <v>1.135776743385054</v>
+        <v>0.3551934685740652</v>
       </c>
       <c r="I7">
-        <v>57.64306978403149</v>
+        <v>18.02681910427685</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024081215</v>
       </c>
       <c r="B8">
-        <v>20.87165331428591</v>
+        <v>6.527229034010304</v>
       </c>
       <c r="C8">
-        <v>1.454223082704896</v>
+        <v>0.4547817551598747</v>
       </c>
       <c r="D8">
-        <v>9.524197365201177</v>
+        <v>2.978519077127193</v>
       </c>
       <c r="E8">
-        <v>3.018144578963924</v>
+        <v>0.9438696890950217</v>
       </c>
       <c r="F8">
-        <v>7.524938994829323</v>
+        <v>2.353287473043039</v>
       </c>
       <c r="G8">
-        <v>8.624223697913962</v>
+        <v>2.697068721350103</v>
       </c>
       <c r="H8">
-        <v>1.243945957040774</v>
+        <v>0.3890214179620714</v>
       </c>
       <c r="I8">
-        <v>52.26132699093996</v>
+        <v>16.34377716774761</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024081216</v>
       </c>
       <c r="B9">
-        <v>24.42334221860767</v>
+        <v>7.63795498307508</v>
       </c>
       <c r="C9">
-        <v>1.242148883143765</v>
+        <v>0.3884594158657262</v>
       </c>
       <c r="D9">
-        <v>11.21077398195556</v>
+        <v>3.5059651637018</v>
       </c>
       <c r="E9">
-        <v>4.225402410549491</v>
+        <v>1.32141756473303</v>
       </c>
       <c r="F9">
-        <v>7.166608566504115</v>
+        <v>2.241226164802893</v>
       </c>
       <c r="G9">
-        <v>8.624223697913962</v>
+        <v>2.697068721350103</v>
       </c>
       <c r="H9">
-        <v>0.9735229229014749</v>
+        <v>0.3044515444920559</v>
       </c>
       <c r="I9">
-        <v>57.86602268157604</v>
+        <v>18.09654355802069</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024081217</v>
       </c>
       <c r="B10">
-        <v>27.65713304198705</v>
+        <v>8.649264103365537</v>
       </c>
       <c r="C10">
-        <v>1.181556254697728</v>
+        <v>0.3695101760673983</v>
       </c>
       <c r="D10">
-        <v>7.738410359225959</v>
+        <v>2.420046750165845</v>
       </c>
       <c r="E10">
-        <v>7.14294217021462</v>
+        <v>2.233824930858218</v>
       </c>
       <c r="F10">
-        <v>4.851242721941247</v>
+        <v>1.517137711558882</v>
       </c>
       <c r="G10">
-        <v>4.754379730901285</v>
+        <v>1.486845577154543</v>
       </c>
       <c r="H10">
-        <v>1.568453598007932</v>
+        <v>0.4905052661260899</v>
       </c>
       <c r="I10">
-        <v>54.89411787697583</v>
+        <v>17.16713451529651</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024081218</v>
       </c>
       <c r="B11">
-        <v>27.87637309780939</v>
+        <v>8.71782743355473</v>
       </c>
       <c r="C11">
-        <v>1.151259940474709</v>
+        <v>0.3600355561682341</v>
       </c>
       <c r="D11">
-        <v>6.845516856238347</v>
+        <v>2.14081058668517</v>
       </c>
       <c r="E11">
-        <v>7.14294217021462</v>
+        <v>2.233824930858218</v>
       </c>
       <c r="F11">
-        <v>3.941634711577264</v>
+        <v>1.232674390641592</v>
       </c>
       <c r="G11">
-        <v>0.9951027343746879</v>
+        <v>0.3112002370788579</v>
       </c>
       <c r="H11">
-        <v>0.6490152819343167</v>
+        <v>0.2029676963280372</v>
       </c>
       <c r="I11">
-        <v>48.60184479262334</v>
+        <v>15.19934083131484</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024081219</v>
       </c>
       <c r="B12">
-        <v>20.94838733382372</v>
+        <v>6.551226199576516</v>
       </c>
       <c r="C12">
-        <v>0.5453336560143358</v>
+        <v>0.170543158184953</v>
       </c>
       <c r="D12">
-        <v>4.861309071821434</v>
+        <v>1.520285778950338</v>
       </c>
       <c r="E12">
-        <v>6.539313254421834</v>
+        <v>2.045050993039214</v>
       </c>
       <c r="F12">
-        <v>2.673696272888074</v>
+        <v>0.8361497614841567</v>
       </c>
       <c r="G12">
-        <v>1.990205468749376</v>
+        <v>0.6224004741577157</v>
       </c>
       <c r="H12">
-        <v>0.1622538204835792</v>
+        <v>0.05074192408200931</v>
       </c>
       <c r="I12">
-        <v>37.72049887820235</v>
+        <v>11.7963982894749</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,28 +757,28 @@
         <v>2024081220</v>
       </c>
       <c r="B13">
-        <v>17.14457236530628</v>
+        <v>5.361652420794177</v>
       </c>
       <c r="C13">
-        <v>0.8180004840215038</v>
+        <v>0.2558147372774295</v>
       </c>
       <c r="D13">
-        <v>3.273942844287906</v>
+        <v>1.023865932762472</v>
       </c>
       <c r="E13">
-        <v>7.344151808812213</v>
+        <v>2.296749576797886</v>
       </c>
       <c r="F13">
-        <v>1.626268867014395</v>
+        <v>0.5085859373975797</v>
       </c>
       <c r="G13">
-        <v>1.879638498263299</v>
+        <v>0.5878226700378426</v>
       </c>
       <c r="H13">
-        <v>0.1622538204835792</v>
+        <v>0.05074192408200931</v>
       </c>
       <c r="I13">
-        <v>32.24882868818918</v>
+        <v>10.0852331991494</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -786,28 +786,28 @@
         <v>2024081221</v>
       </c>
       <c r="B14">
-        <v>12.54053119303733</v>
+        <v>3.921822486821316</v>
       </c>
       <c r="C14">
-        <v>0.4544447133452799</v>
+        <v>0.1421192984874608</v>
       </c>
       <c r="D14">
-        <v>2.777890898183678</v>
+        <v>0.8687347308287645</v>
       </c>
       <c r="E14">
-        <v>5.533265061433859</v>
+        <v>1.730427763340873</v>
       </c>
       <c r="F14">
-        <v>1.460885592402762</v>
+        <v>0.456865333594436</v>
       </c>
       <c r="G14">
-        <v>0.9951027343746879</v>
+        <v>0.3112002370788579</v>
       </c>
       <c r="H14">
-        <v>0.1081692136557195</v>
+        <v>0.03382794938800621</v>
       </c>
       <c r="I14">
-        <v>23.87028940643331</v>
+        <v>7.464997799539715</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -815,28 +815,28 @@
         <v>2024081222</v>
       </c>
       <c r="B15">
-        <v>8.813450244057705</v>
+        <v>2.756245873605189</v>
       </c>
       <c r="C15">
-        <v>0.5453336560143358</v>
+        <v>0.170543158184953</v>
       </c>
       <c r="D15">
-        <v>1.388945449091839</v>
+        <v>0.4343673654143823</v>
       </c>
       <c r="E15">
-        <v>2.816934940366329</v>
+        <v>0.8809450431553534</v>
       </c>
       <c r="F15">
-        <v>0.7993524939562283</v>
+        <v>0.2499829183818612</v>
       </c>
       <c r="G15">
-        <v>2.100772439235452</v>
+        <v>0.6569782782775888</v>
       </c>
       <c r="H15">
-        <v>0.1081692136557195</v>
+        <v>0.03382794938800621</v>
       </c>
       <c r="I15">
-        <v>16.57295843637761</v>
+        <v>5.182890586407335</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -844,28 +844,28 @@
         <v>2024081223</v>
       </c>
       <c r="B16">
-        <v>5.250799336944826</v>
+        <v>1.642091758030953</v>
       </c>
       <c r="C16">
-        <v>0.6362225986833919</v>
+        <v>0.1989670178824451</v>
       </c>
       <c r="D16">
-        <v>1.190524670650147</v>
+        <v>0.3723148846408991</v>
       </c>
       <c r="E16">
-        <v>1.207257831585569</v>
+        <v>0.3775478756380087</v>
       </c>
       <c r="F16">
-        <v>0.7166608566504116</v>
+        <v>0.2241226164802894</v>
       </c>
       <c r="G16">
-        <v>1.326803645832917</v>
+        <v>0.4149336494384772</v>
       </c>
       <c r="H16">
-        <v>0.1081692136557195</v>
+        <v>0.03382794938800621</v>
       </c>
       <c r="I16">
-        <v>10.43643815400298</v>
+        <v>3.263805751499079</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -873,25 +873,25 @@
         <v>2024081300</v>
       </c>
       <c r="B17">
-        <v>3.869586985264143</v>
+        <v>1.210142777839095</v>
       </c>
       <c r="C17">
-        <v>0.9997783693596159</v>
+        <v>0.3126624566724139</v>
       </c>
       <c r="D17">
-        <v>0.09921038922084563</v>
+        <v>0.03102624038674159</v>
       </c>
       <c r="E17">
-        <v>0.6036289157927845</v>
+        <v>0.1887739378190043</v>
       </c>
       <c r="F17">
-        <v>1.130119043179495</v>
+        <v>0.3534241259881487</v>
       </c>
       <c r="G17">
-        <v>1.769071527777222</v>
+        <v>0.5532448659179696</v>
       </c>
       <c r="I17">
-        <v>8.471395230594107</v>
+        <v>2.649274404623373</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -899,28 +899,28 @@
         <v>2024081301</v>
       </c>
       <c r="B18">
-        <v>2.258172574970009</v>
+        <v>0.7062023009485935</v>
       </c>
       <c r="C18">
-        <v>0.7271115413524478</v>
+        <v>0.2273908775799374</v>
       </c>
       <c r="D18">
-        <v>0.09921038922084563</v>
+        <v>0.03102624038674159</v>
       </c>
       <c r="E18">
-        <v>0.4024192771951899</v>
+        <v>0.1258492918793362</v>
       </c>
       <c r="F18">
-        <v>0.8820441312620448</v>
+        <v>0.2758432202834331</v>
       </c>
       <c r="G18">
-        <v>1.658504557291146</v>
+        <v>0.5186670617980963</v>
       </c>
       <c r="H18">
-        <v>0.05408460682785973</v>
+        <v>0.0169139746940031</v>
       </c>
       <c r="I18">
-        <v>6.081547078119543</v>
+        <v>1.901892967570141</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -928,25 +928,25 @@
         <v>2024081302</v>
       </c>
       <c r="B19">
-        <v>1.731996440996414</v>
+        <v>0.5416503084945526</v>
       </c>
       <c r="C19">
-        <v>1.030074683582634</v>
+        <v>0.3221370765715779</v>
       </c>
       <c r="D19">
-        <v>0.793683113766765</v>
+        <v>0.2482099230939327</v>
       </c>
       <c r="E19">
-        <v>0.1006048192987975</v>
+        <v>0.03146232296983406</v>
       </c>
       <c r="F19">
-        <v>0.5788414611407171</v>
+        <v>0.181022113311003</v>
       </c>
       <c r="G19">
-        <v>2.211339409721528</v>
+        <v>0.6915560823974619</v>
       </c>
       <c r="I19">
-        <v>6.446539928506855</v>
+        <v>2.016037826838363</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -954,28 +954,28 @@
         <v>2024081303</v>
       </c>
       <c r="B20">
-        <v>2.148552547058843</v>
+        <v>0.671920635854002</v>
       </c>
       <c r="C20">
-        <v>0.5453336560143358</v>
+        <v>0.170543158184953</v>
       </c>
       <c r="D20">
-        <v>0.5952623353250736</v>
+        <v>0.1861574423204495</v>
       </c>
       <c r="E20">
-        <v>0.9054433736891769</v>
+        <v>0.2831609067285065</v>
       </c>
       <c r="F20">
-        <v>0.7166608566504116</v>
+        <v>0.2241226164802894</v>
       </c>
       <c r="G20">
-        <v>1.879638498263299</v>
+        <v>0.5878226700378426</v>
       </c>
       <c r="H20">
-        <v>0.05408460682785973</v>
+        <v>0.0169139746940031</v>
       </c>
       <c r="I20">
-        <v>6.844975873828999</v>
+        <v>2.140641404300046</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -983,28 +983,28 @@
         <v>2024081304</v>
       </c>
       <c r="B21">
-        <v>3.168018806632681</v>
+        <v>0.9907401212337067</v>
       </c>
       <c r="C21">
-        <v>0.1514815711150933</v>
+        <v>0.0473730994958203</v>
       </c>
       <c r="D21">
-        <v>1.289735059870993</v>
+        <v>0.4033411250276407</v>
       </c>
       <c r="E21">
-        <v>0.5030240964939872</v>
+        <v>0.1573116148491703</v>
       </c>
       <c r="F21">
-        <v>1.323066196893068</v>
+        <v>0.4137648304251497</v>
       </c>
       <c r="G21">
-        <v>3.206442144096216</v>
+        <v>1.00275631947632</v>
       </c>
       <c r="H21">
-        <v>0.05408460682785973</v>
+        <v>0.0169139746940031</v>
       </c>
       <c r="I21">
-        <v>9.695852481929897</v>
+        <v>3.03220108520181</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1012,28 +1012,28 @@
         <v>2024081305</v>
       </c>
       <c r="B22">
-        <v>8.396894137995279</v>
+        <v>2.625975546245741</v>
       </c>
       <c r="C22">
-        <v>0.3029631422301866</v>
+        <v>0.09474619899164059</v>
       </c>
       <c r="D22">
-        <v>2.579470119741985</v>
+        <v>0.8066822500552815</v>
       </c>
       <c r="E22">
-        <v>3.621773494756708</v>
+        <v>1.132643626914026</v>
       </c>
       <c r="F22">
-        <v>2.839079547499707</v>
+        <v>0.8878703652873003</v>
       </c>
       <c r="G22">
-        <v>4.975513671873439</v>
+        <v>1.556001185394289</v>
       </c>
       <c r="H22">
-        <v>0.1081692136557195</v>
+        <v>0.03382794938800621</v>
       </c>
       <c r="I22">
-        <v>22.82386332775303</v>
+        <v>7.137747122276284</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1041,28 +1041,28 @@
         <v>2024081306</v>
       </c>
       <c r="B23">
-        <v>13.7792375084335</v>
+        <v>4.309205302390204</v>
       </c>
       <c r="C23">
-        <v>0.6665189129064105</v>
+        <v>0.2084416377816092</v>
       </c>
       <c r="D23">
-        <v>5.158940239483971</v>
+        <v>1.613364500110563</v>
       </c>
       <c r="E23">
-        <v>8.853224098294174</v>
+        <v>2.768684421345397</v>
       </c>
       <c r="F23">
-        <v>5.016625996552881</v>
+        <v>1.568858315362026</v>
       </c>
       <c r="G23">
-        <v>6.634018229164585</v>
+        <v>2.074668247192385</v>
       </c>
       <c r="H23">
-        <v>0.7030998887621764</v>
+        <v>0.2198816710220403</v>
       </c>
       <c r="I23">
-        <v>40.8116648735977</v>
+        <v>12.76310409520422</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1070,28 +1070,28 @@
         <v>2024081307</v>
       </c>
       <c r="B24">
-        <v>23.16271189762928</v>
+        <v>7.243715834487274</v>
       </c>
       <c r="C24">
-        <v>0.6665189129064105</v>
+        <v>0.2084416377816092</v>
       </c>
       <c r="D24">
-        <v>8.432883083771877</v>
+        <v>2.637230432873035</v>
       </c>
       <c r="E24">
-        <v>11.16713494216652</v>
+        <v>3.492317849651581</v>
       </c>
       <c r="F24">
-        <v>6.31212831434401</v>
+        <v>1.974003045153318</v>
       </c>
       <c r="G24">
-        <v>12.60463463541271</v>
+        <v>3.941869669665532</v>
       </c>
       <c r="H24">
-        <v>1.406199777524353</v>
+        <v>0.4397633420440807</v>
       </c>
       <c r="I24">
-        <v>63.75221156375515</v>
+        <v>19.93734181165643</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1099,28 +1099,28 @@
         <v>2024081308</v>
       </c>
       <c r="B25">
-        <v>26.63766678241322</v>
+        <v>8.330444617985837</v>
       </c>
       <c r="C25">
-        <v>0.6059262844603731</v>
+        <v>0.1894923979832812</v>
       </c>
       <c r="D25">
-        <v>7.738410359225959</v>
+        <v>2.420046750165845</v>
       </c>
       <c r="E25">
-        <v>6.237498796525441</v>
+        <v>1.950664024129712</v>
       </c>
       <c r="F25">
-        <v>5.237137029368393</v>
+        <v>1.637819120432884</v>
       </c>
       <c r="G25">
-        <v>7.297420052081044</v>
+        <v>2.282135071911624</v>
       </c>
       <c r="H25">
-        <v>0.7571844955900361</v>
+        <v>0.2367956457160434</v>
       </c>
       <c r="I25">
-        <v>54.51124379966447</v>
+        <v>17.04739762832522</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1128,28 +1128,28 @@
         <v>2024081309</v>
       </c>
       <c r="B26">
-        <v>21.54033548454402</v>
+        <v>6.736347191087312</v>
       </c>
       <c r="C26">
-        <v>0.8482967982445224</v>
+        <v>0.2652893571765936</v>
       </c>
       <c r="D26">
-        <v>9.028145419096953</v>
+        <v>2.823387875193485</v>
       </c>
       <c r="E26">
-        <v>5.332055422836265</v>
+        <v>1.667503117401205</v>
       </c>
       <c r="F26">
-        <v>7.083916929198299</v>
+        <v>2.215365862901322</v>
       </c>
       <c r="G26">
-        <v>18.02241618923046</v>
+        <v>5.636182071539312</v>
       </c>
       <c r="H26">
-        <v>0.811269102417896</v>
+        <v>0.2537096204100465</v>
       </c>
       <c r="I26">
-        <v>62.66643534556842</v>
+        <v>19.59778509570927</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1157,28 +1157,28 @@
         <v>2024081310</v>
       </c>
       <c r="B27">
-        <v>18.52578471698697</v>
+        <v>5.793601400986033</v>
       </c>
       <c r="C27">
-        <v>1.666297282266026</v>
+        <v>0.5211040944540231</v>
       </c>
       <c r="D27">
-        <v>8.135251916109343</v>
+        <v>2.54415171171281</v>
       </c>
       <c r="E27">
-        <v>4.124797591250696</v>
+        <v>1.289955241763197</v>
       </c>
       <c r="F27">
-        <v>8.296727609683611</v>
+        <v>2.594650290791043</v>
       </c>
       <c r="G27">
-        <v>16.25334466145323</v>
+        <v>5.082937205621345</v>
       </c>
       <c r="H27">
-        <v>1.189861350212914</v>
+        <v>0.3721074432680683</v>
       </c>
       <c r="I27">
-        <v>58.19206512796278</v>
+        <v>18.19850738859652</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1186,28 +1186,28 @@
         <v>2024081311</v>
       </c>
       <c r="B28">
-        <v>19.51236496818745</v>
+        <v>6.102136386837361</v>
       </c>
       <c r="C28">
-        <v>1.545112025373952</v>
+        <v>0.4832056148573668</v>
       </c>
       <c r="D28">
-        <v>7.738410359225959</v>
+        <v>2.420046750165845</v>
       </c>
       <c r="E28">
-        <v>5.835079519330253</v>
+        <v>1.824814732250376</v>
       </c>
       <c r="F28">
-        <v>6.835842017280848</v>
+        <v>2.137784957196606</v>
       </c>
       <c r="G28">
-        <v>18.90695195311906</v>
+        <v>5.912804504498298</v>
       </c>
       <c r="H28">
-        <v>1.243945957040774</v>
+        <v>0.3890214179620714</v>
       </c>
       <c r="I28">
-        <v>61.6177067995583</v>
+        <v>19.26981436376792</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1215,28 +1215,28 @@
         <v>2024081312</v>
       </c>
       <c r="B29">
-        <v>19.44659295144075</v>
+        <v>6.081567387780606</v>
       </c>
       <c r="C29">
-        <v>1.423926768481877</v>
+        <v>0.4453071352607106</v>
       </c>
       <c r="D29">
-        <v>6.547885688575812</v>
+        <v>2.047731865524945</v>
       </c>
       <c r="E29">
-        <v>3.923587952653101</v>
+        <v>1.227030595823528</v>
       </c>
       <c r="F29">
-        <v>6.257000556140132</v>
+        <v>1.956762843885603</v>
       </c>
       <c r="G29">
-        <v>14.15257222221778</v>
+        <v>4.425958927343757</v>
       </c>
       <c r="H29">
-        <v>0.7571844955900361</v>
+        <v>0.2367956457160434</v>
       </c>
       <c r="I29">
-        <v>52.50875063509949</v>
+        <v>16.42115440133519</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1244,28 +1244,28 @@
         <v>2024081313</v>
       </c>
       <c r="B30">
-        <v>20.57567923892576</v>
+        <v>6.434668538254903</v>
       </c>
       <c r="C30">
-        <v>1.484519396927914</v>
+        <v>0.4642563750590387</v>
       </c>
       <c r="D30">
-        <v>6.34946491013412</v>
+        <v>1.985679384751462</v>
       </c>
       <c r="E30">
-        <v>4.627821687744682</v>
+        <v>1.447266856612366</v>
       </c>
       <c r="F30">
-        <v>7.80057778584871</v>
+        <v>2.439488479381612</v>
       </c>
       <c r="G30">
-        <v>11.7200988715241</v>
+        <v>3.665247236706549</v>
       </c>
       <c r="H30">
-        <v>1.135776743385054</v>
+        <v>0.3551934685740652</v>
       </c>
       <c r="I30">
-        <v>53.69393863449034</v>
+        <v>16.79180033933999</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1273,28 +1273,28 @@
         <v>2024081314</v>
       </c>
       <c r="B31">
-        <v>19.84122505192096</v>
+        <v>6.204981382121134</v>
       </c>
       <c r="C31">
-        <v>1.181556254697728</v>
+        <v>0.3695101760673983</v>
       </c>
       <c r="D31">
-        <v>9.028145419096953</v>
+        <v>2.823387875193485</v>
       </c>
       <c r="E31">
-        <v>4.225402410549491</v>
+        <v>1.32141756473303</v>
       </c>
       <c r="F31">
-        <v>7.387119599319627</v>
+        <v>2.310186969873752</v>
       </c>
       <c r="G31">
-        <v>11.16726401909372</v>
+        <v>3.492358216107182</v>
       </c>
       <c r="H31">
-        <v>1.298030563868633</v>
+        <v>0.4059353926560745</v>
       </c>
       <c r="I31">
-        <v>54.12874331854711</v>
+        <v>16.92777757675206</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1302,28 +1302,28 @@
         <v>2024081315</v>
       </c>
       <c r="B32">
-        <v>21.01415935057042</v>
+        <v>6.571795198633274</v>
       </c>
       <c r="C32">
-        <v>1.36333414003584</v>
+        <v>0.4263578954623824</v>
       </c>
       <c r="D32">
-        <v>8.928935029876108</v>
+        <v>2.792361634806744</v>
       </c>
       <c r="E32">
-        <v>4.426612049147087</v>
+        <v>1.384342210672699</v>
       </c>
       <c r="F32">
-        <v>7.194172445606054</v>
+        <v>2.249846265436751</v>
       </c>
       <c r="G32">
-        <v>11.05669704860764</v>
+        <v>3.457780411987309</v>
       </c>
       <c r="H32">
-        <v>0.7571844955900361</v>
+        <v>0.2367956457160434</v>
       </c>
       <c r="I32">
-        <v>54.74109455943319</v>
+        <v>17.1192792627152</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1331,28 +1331,28 @@
         <v>2024081316</v>
       </c>
       <c r="B33">
-        <v>24.42334221860767</v>
+        <v>7.63795498307508</v>
       </c>
       <c r="C33">
-        <v>1.242148883143765</v>
+        <v>0.3884594158657262</v>
       </c>
       <c r="D33">
-        <v>11.21077398195556</v>
+        <v>3.5059651637018</v>
       </c>
       <c r="E33">
-        <v>4.225402410549491</v>
+        <v>1.32141756473303</v>
       </c>
       <c r="F33">
-        <v>7.166608566504115</v>
+        <v>2.241226164802893</v>
       </c>
       <c r="G33">
-        <v>8.624223697913962</v>
+        <v>2.697068721350103</v>
       </c>
       <c r="H33">
-        <v>0.9735229229014749</v>
+        <v>0.3044515444920559</v>
       </c>
       <c r="I33">
-        <v>57.86602268157604</v>
+        <v>18.09654355802069</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1360,28 +1360,28 @@
         <v>2024081317</v>
       </c>
       <c r="B34">
-        <v>27.65713304198705</v>
+        <v>8.649264103365537</v>
       </c>
       <c r="C34">
-        <v>1.181556254697728</v>
+        <v>0.3695101760673983</v>
       </c>
       <c r="D34">
-        <v>7.738410359225959</v>
+        <v>2.420046750165845</v>
       </c>
       <c r="E34">
-        <v>7.14294217021462</v>
+        <v>2.233824930858218</v>
       </c>
       <c r="F34">
-        <v>4.851242721941247</v>
+        <v>1.517137711558882</v>
       </c>
       <c r="G34">
-        <v>4.754379730901285</v>
+        <v>1.486845577154543</v>
       </c>
       <c r="H34">
-        <v>1.568453598007932</v>
+        <v>0.4905052661260899</v>
       </c>
       <c r="I34">
-        <v>54.89411787697583</v>
+        <v>17.16713451529651</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1389,28 +1389,28 @@
         <v>2024081318</v>
       </c>
       <c r="B35">
-        <v>27.87637309780939</v>
+        <v>8.71782743355473</v>
       </c>
       <c r="C35">
-        <v>1.151259940474709</v>
+        <v>0.3600355561682341</v>
       </c>
       <c r="D35">
-        <v>6.845516856238347</v>
+        <v>2.14081058668517</v>
       </c>
       <c r="E35">
-        <v>7.14294217021462</v>
+        <v>2.233824930858218</v>
       </c>
       <c r="F35">
-        <v>3.941634711577264</v>
+        <v>1.232674390641592</v>
       </c>
       <c r="G35">
-        <v>0.9951027343746879</v>
+        <v>0.3112002370788579</v>
       </c>
       <c r="H35">
-        <v>0.6490152819343167</v>
+        <v>0.2029676963280372</v>
       </c>
       <c r="I35">
-        <v>48.60184479262334</v>
+        <v>15.19934083131484</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1418,28 +1418,28 @@
         <v>2024081319</v>
       </c>
       <c r="B36">
-        <v>20.94838733382372</v>
+        <v>6.551226199576516</v>
       </c>
       <c r="C36">
-        <v>0.5453336560143358</v>
+        <v>0.170543158184953</v>
       </c>
       <c r="D36">
-        <v>4.861309071821434</v>
+        <v>1.520285778950338</v>
       </c>
       <c r="E36">
-        <v>6.539313254421834</v>
+        <v>2.045050993039214</v>
       </c>
       <c r="F36">
-        <v>2.673696272888074</v>
+        <v>0.8361497614841567</v>
       </c>
       <c r="G36">
-        <v>1.990205468749376</v>
+        <v>0.6224004741577157</v>
       </c>
       <c r="H36">
-        <v>0.1622538204835792</v>
+        <v>0.05074192408200931</v>
       </c>
       <c r="I36">
-        <v>37.72049887820235</v>
+        <v>11.7963982894749</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1447,28 +1447,28 @@
         <v>2024081320</v>
       </c>
       <c r="B37">
-        <v>17.14457236530628</v>
+        <v>5.361652420794177</v>
       </c>
       <c r="C37">
-        <v>0.8180004840215038</v>
+        <v>0.2558147372774295</v>
       </c>
       <c r="D37">
-        <v>3.273942844287906</v>
+        <v>1.023865932762472</v>
       </c>
       <c r="E37">
-        <v>7.344151808812213</v>
+        <v>2.296749576797886</v>
       </c>
       <c r="F37">
-        <v>1.626268867014395</v>
+        <v>0.5085859373975797</v>
       </c>
       <c r="G37">
-        <v>1.879638498263299</v>
+        <v>0.5878226700378426</v>
       </c>
       <c r="H37">
-        <v>0.1622538204835792</v>
+        <v>0.05074192408200931</v>
       </c>
       <c r="I37">
-        <v>32.24882868818918</v>
+        <v>10.0852331991494</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1476,28 +1476,28 @@
         <v>2024081321</v>
       </c>
       <c r="B38">
-        <v>12.54053119303733</v>
+        <v>3.921822486821316</v>
       </c>
       <c r="C38">
-        <v>0.4544447133452799</v>
+        <v>0.1421192984874608</v>
       </c>
       <c r="D38">
-        <v>2.777890898183678</v>
+        <v>0.8687347308287645</v>
       </c>
       <c r="E38">
-        <v>5.533265061433859</v>
+        <v>1.730427763340873</v>
       </c>
       <c r="F38">
-        <v>1.460885592402762</v>
+        <v>0.456865333594436</v>
       </c>
       <c r="G38">
-        <v>0.9951027343746879</v>
+        <v>0.3112002370788579</v>
       </c>
       <c r="H38">
-        <v>0.1081692136557195</v>
+        <v>0.03382794938800621</v>
       </c>
       <c r="I38">
-        <v>23.87028940643331</v>
+        <v>7.464997799539715</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1505,28 +1505,28 @@
         <v>2024081322</v>
       </c>
       <c r="B39">
-        <v>8.813450244057705</v>
+        <v>2.756245873605189</v>
       </c>
       <c r="C39">
-        <v>0.5453336560143358</v>
+        <v>0.170543158184953</v>
       </c>
       <c r="D39">
-        <v>1.388945449091839</v>
+        <v>0.4343673654143823</v>
       </c>
       <c r="E39">
-        <v>2.816934940366329</v>
+        <v>0.8809450431553534</v>
       </c>
       <c r="F39">
-        <v>0.7993524939562283</v>
+        <v>0.2499829183818612</v>
       </c>
       <c r="G39">
-        <v>2.100772439235452</v>
+        <v>0.6569782782775888</v>
       </c>
       <c r="H39">
-        <v>0.1081692136557195</v>
+        <v>0.03382794938800621</v>
       </c>
       <c r="I39">
-        <v>16.57295843637761</v>
+        <v>5.182890586407335</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1534,28 +1534,28 @@
         <v>2024081323</v>
       </c>
       <c r="B40">
-        <v>5.250799336944826</v>
+        <v>1.642091758030953</v>
       </c>
       <c r="C40">
-        <v>0.6362225986833919</v>
+        <v>0.1989670178824451</v>
       </c>
       <c r="D40">
-        <v>1.190524670650147</v>
+        <v>0.3723148846408991</v>
       </c>
       <c r="E40">
-        <v>1.207257831585569</v>
+        <v>0.3775478756380087</v>
       </c>
       <c r="F40">
-        <v>0.7166608566504116</v>
+        <v>0.2241226164802894</v>
       </c>
       <c r="G40">
-        <v>1.326803645832917</v>
+        <v>0.4149336494384772</v>
       </c>
       <c r="H40">
-        <v>0.1081692136557195</v>
+        <v>0.03382794938800621</v>
       </c>
       <c r="I40">
-        <v>10.43643815400298</v>
+        <v>3.263805751499079</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1563,25 +1563,25 @@
         <v>2024081400</v>
       </c>
       <c r="B41">
-        <v>3.869586985264143</v>
+        <v>1.210142777839095</v>
       </c>
       <c r="C41">
-        <v>0.9997783693596159</v>
+        <v>0.3126624566724139</v>
       </c>
       <c r="D41">
-        <v>0.09921038922084563</v>
+        <v>0.03102624038674159</v>
       </c>
       <c r="E41">
-        <v>0.6036289157927845</v>
+        <v>0.1887739378190043</v>
       </c>
       <c r="F41">
-        <v>1.130119043179495</v>
+        <v>0.3534241259881487</v>
       </c>
       <c r="G41">
-        <v>1.769071527777222</v>
+        <v>0.5532448659179696</v>
       </c>
       <c r="I41">
-        <v>8.471395230594107</v>
+        <v>2.649274404623373</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1589,28 +1589,28 @@
         <v>2024081401</v>
       </c>
       <c r="B42">
-        <v>2.258172574970009</v>
+        <v>0.7062023009485935</v>
       </c>
       <c r="C42">
-        <v>0.7271115413524478</v>
+        <v>0.2273908775799374</v>
       </c>
       <c r="D42">
-        <v>0.09921038922084563</v>
+        <v>0.03102624038674159</v>
       </c>
       <c r="E42">
-        <v>0.4024192771951899</v>
+        <v>0.1258492918793362</v>
       </c>
       <c r="F42">
-        <v>0.8820441312620448</v>
+        <v>0.2758432202834331</v>
       </c>
       <c r="G42">
-        <v>1.658504557291146</v>
+        <v>0.5186670617980963</v>
       </c>
       <c r="H42">
-        <v>0.05408460682785973</v>
+        <v>0.0169139746940031</v>
       </c>
       <c r="I42">
-        <v>6.081547078119543</v>
+        <v>1.901892967570141</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1618,25 +1618,25 @@
         <v>2024081402</v>
       </c>
       <c r="B43">
-        <v>1.731996440996414</v>
+        <v>0.5416503084945526</v>
       </c>
       <c r="C43">
-        <v>1.030074683582634</v>
+        <v>0.3221370765715779</v>
       </c>
       <c r="D43">
-        <v>0.793683113766765</v>
+        <v>0.2482099230939327</v>
       </c>
       <c r="E43">
-        <v>0.1006048192987975</v>
+        <v>0.03146232296983406</v>
       </c>
       <c r="F43">
-        <v>0.5788414611407171</v>
+        <v>0.181022113311003</v>
       </c>
       <c r="G43">
-        <v>2.211339409721528</v>
+        <v>0.6915560823974619</v>
       </c>
       <c r="I43">
-        <v>6.446539928506855</v>
+        <v>2.016037826838363</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1644,28 +1644,28 @@
         <v>2024081403</v>
       </c>
       <c r="B44">
-        <v>2.148552547058843</v>
+        <v>0.671920635854002</v>
       </c>
       <c r="C44">
-        <v>0.5453336560143358</v>
+        <v>0.170543158184953</v>
       </c>
       <c r="D44">
-        <v>0.5952623353250736</v>
+        <v>0.1861574423204495</v>
       </c>
       <c r="E44">
-        <v>0.9054433736891769</v>
+        <v>0.2831609067285065</v>
       </c>
       <c r="F44">
-        <v>0.7166608566504116</v>
+        <v>0.2241226164802894</v>
       </c>
       <c r="G44">
-        <v>1.879638498263299</v>
+        <v>0.5878226700378426</v>
       </c>
       <c r="H44">
-        <v>0.05408460682785973</v>
+        <v>0.0169139746940031</v>
       </c>
       <c r="I44">
-        <v>6.844975873828999</v>
+        <v>2.140641404300046</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1673,28 +1673,28 @@
         <v>2024081404</v>
       </c>
       <c r="B45">
-        <v>3.168018806632681</v>
+        <v>0.9907401212337067</v>
       </c>
       <c r="C45">
-        <v>0.1514815711150933</v>
+        <v>0.0473730994958203</v>
       </c>
       <c r="D45">
-        <v>1.289735059870993</v>
+        <v>0.4033411250276407</v>
       </c>
       <c r="E45">
-        <v>0.5030240964939872</v>
+        <v>0.1573116148491703</v>
       </c>
       <c r="F45">
-        <v>1.323066196893068</v>
+        <v>0.4137648304251497</v>
       </c>
       <c r="G45">
-        <v>3.206442144096216</v>
+        <v>1.00275631947632</v>
       </c>
       <c r="H45">
-        <v>0.05408460682785973</v>
+        <v>0.0169139746940031</v>
       </c>
       <c r="I45">
-        <v>9.695852481929897</v>
+        <v>3.03220108520181</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1702,28 +1702,28 @@
         <v>2024081405</v>
       </c>
       <c r="B46">
-        <v>8.396894137995279</v>
+        <v>2.625975546245741</v>
       </c>
       <c r="C46">
-        <v>0.3029631422301866</v>
+        <v>0.09474619899164059</v>
       </c>
       <c r="D46">
-        <v>2.579470119741985</v>
+        <v>0.8066822500552815</v>
       </c>
       <c r="E46">
-        <v>3.621773494756708</v>
+        <v>1.132643626914026</v>
       </c>
       <c r="F46">
-        <v>2.839079547499707</v>
+        <v>0.8878703652873003</v>
       </c>
       <c r="G46">
-        <v>4.975513671873439</v>
+        <v>1.556001185394289</v>
       </c>
       <c r="H46">
-        <v>0.1081692136557195</v>
+        <v>0.03382794938800621</v>
       </c>
       <c r="I46">
-        <v>22.82386332775303</v>
+        <v>7.137747122276284</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1731,28 +1731,28 @@
         <v>2024081406</v>
       </c>
       <c r="B47">
-        <v>13.7792375084335</v>
+        <v>4.309205302390204</v>
       </c>
       <c r="C47">
-        <v>0.6665189129064105</v>
+        <v>0.2084416377816092</v>
       </c>
       <c r="D47">
-        <v>5.158940239483971</v>
+        <v>1.613364500110563</v>
       </c>
       <c r="E47">
-        <v>8.853224098294174</v>
+        <v>2.768684421345397</v>
       </c>
       <c r="F47">
-        <v>5.016625996552881</v>
+        <v>1.568858315362026</v>
       </c>
       <c r="G47">
-        <v>6.634018229164585</v>
+        <v>2.074668247192385</v>
       </c>
       <c r="H47">
-        <v>0.7030998887621764</v>
+        <v>0.2198816710220403</v>
       </c>
       <c r="I47">
-        <v>40.8116648735977</v>
+        <v>12.76310409520422</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1760,28 +1760,28 @@
         <v>2024081407</v>
       </c>
       <c r="B48">
-        <v>23.16271189762928</v>
+        <v>7.243715834487274</v>
       </c>
       <c r="C48">
-        <v>0.6665189129064105</v>
+        <v>0.2084416377816092</v>
       </c>
       <c r="D48">
-        <v>8.432883083771877</v>
+        <v>2.637230432873035</v>
       </c>
       <c r="E48">
-        <v>11.16713494216652</v>
+        <v>3.492317849651581</v>
       </c>
       <c r="F48">
-        <v>6.31212831434401</v>
+        <v>1.974003045153318</v>
       </c>
       <c r="G48">
-        <v>12.60463463541271</v>
+        <v>3.941869669665532</v>
       </c>
       <c r="H48">
-        <v>1.406199777524353</v>
+        <v>0.4397633420440807</v>
       </c>
       <c r="I48">
-        <v>63.75221156375515</v>
+        <v>19.93734181165643</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1789,28 +1789,28 @@
         <v>2024081408</v>
       </c>
       <c r="B49">
-        <v>26.63766678241322</v>
+        <v>8.330444617985837</v>
       </c>
       <c r="C49">
-        <v>0.6059262844603731</v>
+        <v>0.1894923979832812</v>
       </c>
       <c r="D49">
-        <v>7.738410359225959</v>
+        <v>2.420046750165845</v>
       </c>
       <c r="E49">
-        <v>6.237498796525441</v>
+        <v>1.950664024129712</v>
       </c>
       <c r="F49">
-        <v>5.237137029368393</v>
+        <v>1.637819120432884</v>
       </c>
       <c r="G49">
-        <v>7.297420052081044</v>
+        <v>2.282135071911624</v>
       </c>
       <c r="H49">
-        <v>0.7571844955900361</v>
+        <v>0.2367956457160434</v>
       </c>
       <c r="I49">
-        <v>54.51124379966447</v>
+        <v>17.04739762832522</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기동로_N_여름_배출량/경기동로_N_여름_배출량_PM25_재비산.xlsx
+++ b/output/경기동로_N_여름_배출량/경기동로_N_여름_배출량_PM25_재비산.xlsx
@@ -438,28 +438,28 @@
         <v>2024081209</v>
       </c>
       <c r="B2">
-        <v>6.736347191087312</v>
+        <v>21.54033548454402</v>
       </c>
       <c r="C2">
-        <v>0.2652893571765936</v>
+        <v>0.8482967982445224</v>
       </c>
       <c r="D2">
-        <v>2.823387875193485</v>
+        <v>9.028145419096953</v>
       </c>
       <c r="E2">
-        <v>1.667503117401205</v>
+        <v>5.332055422836265</v>
       </c>
       <c r="F2">
-        <v>2.215365862901322</v>
+        <v>7.083916929198299</v>
       </c>
       <c r="G2">
-        <v>5.636182071539312</v>
+        <v>18.02241618923046</v>
       </c>
       <c r="H2">
-        <v>0.2537096204100465</v>
+        <v>0.811269102417896</v>
       </c>
       <c r="I2">
-        <v>19.59778509570927</v>
+        <v>62.66643534556842</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024081210</v>
       </c>
       <c r="B3">
-        <v>5.865592897684679</v>
+        <v>18.75598677560042</v>
       </c>
       <c r="C3">
-        <v>0.6063756735464995</v>
+        <v>1.938964110273194</v>
       </c>
       <c r="D3">
-        <v>1.396180817403372</v>
+        <v>4.464467514938054</v>
       </c>
       <c r="E3">
-        <v>1.195568272853694</v>
+        <v>3.822983133354303</v>
       </c>
       <c r="F3">
-        <v>2.646370894594186</v>
+        <v>8.462110884295246</v>
       </c>
       <c r="G3">
-        <v>4.529692339703375</v>
+        <v>14.48427313367601</v>
       </c>
       <c r="H3">
-        <v>0.2198816710220403</v>
+        <v>0.7030998887621764</v>
       </c>
       <c r="I3">
-        <v>16.45966256680785</v>
+        <v>52.6318854408994</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024081211</v>
       </c>
       <c r="B4">
-        <v>6.263260212781944</v>
+        <v>20.02757909936994</v>
       </c>
       <c r="C4">
-        <v>0.5874264337481715</v>
+        <v>1.878371481827158</v>
       </c>
       <c r="D4">
-        <v>2.451072990552585</v>
+        <v>7.837620748446807</v>
       </c>
       <c r="E4">
-        <v>1.289955241763197</v>
+        <v>4.124797591250696</v>
       </c>
       <c r="F4">
-        <v>2.198125661633608</v>
+        <v>7.028789170994421</v>
       </c>
       <c r="G4">
-        <v>4.875470380902106</v>
+        <v>15.58994283853677</v>
       </c>
       <c r="H4">
-        <v>0.2706235951040497</v>
+        <v>0.8653537092457557</v>
       </c>
       <c r="I4">
-        <v>17.93593451648566</v>
+        <v>57.35245463967155</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024081212</v>
       </c>
       <c r="B5">
-        <v>5.776460568438741</v>
+        <v>18.47097470303139</v>
       </c>
       <c r="C5">
-        <v>0.4074086556640544</v>
+        <v>1.302741511589802</v>
       </c>
       <c r="D5">
-        <v>1.923626903977979</v>
+        <v>6.151044131692429</v>
       </c>
       <c r="E5">
-        <v>1.32141756473303</v>
+        <v>4.225402410549491</v>
       </c>
       <c r="F5">
-        <v>1.853321636279316</v>
+        <v>5.926234006916865</v>
       </c>
       <c r="G5">
-        <v>4.633425752062993</v>
+        <v>14.81597404513424</v>
       </c>
       <c r="H5">
-        <v>0.3044515444920559</v>
+        <v>0.9735229229014749</v>
       </c>
       <c r="I5">
-        <v>16.22011262564817</v>
+        <v>51.8658937318157</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024081213</v>
       </c>
       <c r="B6">
-        <v>5.971866059477915</v>
+        <v>19.09580886212503</v>
       </c>
       <c r="C6">
-        <v>0.4642563750590387</v>
+        <v>1.484519396927914</v>
       </c>
       <c r="D6">
-        <v>2.94749283674045</v>
+        <v>9.424986975980337</v>
       </c>
       <c r="E6">
-        <v>1.32141756473303</v>
+        <v>4.225402410549491</v>
       </c>
       <c r="F6">
-        <v>2.249846265436751</v>
+        <v>7.194172445606054</v>
       </c>
       <c r="G6">
-        <v>4.080180886145024</v>
+        <v>13.04690251735702</v>
       </c>
       <c r="H6">
-        <v>0.2875375697980528</v>
+        <v>0.9194383160736154</v>
       </c>
       <c r="I6">
-        <v>17.32259755739026</v>
+        <v>55.39123092461946</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024081214</v>
       </c>
       <c r="B7">
-        <v>6.153558884479253</v>
+        <v>19.6767950100542</v>
       </c>
       <c r="C7">
-        <v>0.4358325153615465</v>
+        <v>1.393630454258859</v>
       </c>
       <c r="D7">
-        <v>2.916466596353709</v>
+        <v>9.325776586759492</v>
       </c>
       <c r="E7">
-        <v>1.101181303944192</v>
+        <v>3.52116867545791</v>
       </c>
       <c r="F7">
-        <v>2.327427171141467</v>
+        <v>7.442247357523505</v>
       </c>
       <c r="G7">
-        <v>4.737159164422614</v>
+        <v>15.14767495659247</v>
       </c>
       <c r="H7">
-        <v>0.3551934685740652</v>
+        <v>1.135776743385054</v>
       </c>
       <c r="I7">
-        <v>18.02681910427685</v>
+        <v>57.64306978403149</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024081215</v>
       </c>
       <c r="B8">
-        <v>6.527229034010304</v>
+        <v>20.87165331428591</v>
       </c>
       <c r="C8">
-        <v>0.4547817551598747</v>
+        <v>1.454223082704896</v>
       </c>
       <c r="D8">
-        <v>2.978519077127193</v>
+        <v>9.524197365201177</v>
       </c>
       <c r="E8">
-        <v>0.9438696890950217</v>
+        <v>3.018144578963924</v>
       </c>
       <c r="F8">
-        <v>2.353287473043039</v>
+        <v>7.524938994829323</v>
       </c>
       <c r="G8">
-        <v>2.697068721350103</v>
+        <v>8.624223697913962</v>
       </c>
       <c r="H8">
-        <v>0.3890214179620714</v>
+        <v>1.243945957040774</v>
       </c>
       <c r="I8">
-        <v>16.34377716774761</v>
+        <v>52.26132699093996</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024081216</v>
       </c>
       <c r="B9">
-        <v>7.63795498307508</v>
+        <v>24.42334221860767</v>
       </c>
       <c r="C9">
-        <v>0.3884594158657262</v>
+        <v>1.242148883143765</v>
       </c>
       <c r="D9">
-        <v>3.5059651637018</v>
+        <v>11.21077398195556</v>
       </c>
       <c r="E9">
-        <v>1.32141756473303</v>
+        <v>4.225402410549491</v>
       </c>
       <c r="F9">
-        <v>2.241226164802893</v>
+        <v>7.166608566504115</v>
       </c>
       <c r="G9">
-        <v>2.697068721350103</v>
+        <v>8.624223697913962</v>
       </c>
       <c r="H9">
-        <v>0.3044515444920559</v>
+        <v>0.9735229229014749</v>
       </c>
       <c r="I9">
-        <v>18.09654355802069</v>
+        <v>57.86602268157604</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024081217</v>
       </c>
       <c r="B10">
-        <v>8.649264103365537</v>
+        <v>27.65713304198705</v>
       </c>
       <c r="C10">
-        <v>0.3695101760673983</v>
+        <v>1.181556254697728</v>
       </c>
       <c r="D10">
-        <v>2.420046750165845</v>
+        <v>7.738410359225959</v>
       </c>
       <c r="E10">
-        <v>2.233824930858218</v>
+        <v>7.14294217021462</v>
       </c>
       <c r="F10">
-        <v>1.517137711558882</v>
+        <v>4.851242721941247</v>
       </c>
       <c r="G10">
-        <v>1.486845577154543</v>
+        <v>4.754379730901285</v>
       </c>
       <c r="H10">
-        <v>0.4905052661260899</v>
+        <v>1.568453598007932</v>
       </c>
       <c r="I10">
-        <v>17.16713451529651</v>
+        <v>54.89411787697583</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024081218</v>
       </c>
       <c r="B11">
-        <v>8.71782743355473</v>
+        <v>27.87637309780939</v>
       </c>
       <c r="C11">
-        <v>0.3600355561682341</v>
+        <v>1.151259940474709</v>
       </c>
       <c r="D11">
-        <v>2.14081058668517</v>
+        <v>6.845516856238347</v>
       </c>
       <c r="E11">
-        <v>2.233824930858218</v>
+        <v>7.14294217021462</v>
       </c>
       <c r="F11">
-        <v>1.232674390641592</v>
+        <v>3.941634711577264</v>
       </c>
       <c r="G11">
-        <v>0.3112002370788579</v>
+        <v>0.9951027343746879</v>
       </c>
       <c r="H11">
-        <v>0.2029676963280372</v>
+        <v>0.6490152819343167</v>
       </c>
       <c r="I11">
-        <v>15.19934083131484</v>
+        <v>48.60184479262334</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024081219</v>
       </c>
       <c r="B12">
-        <v>6.551226199576516</v>
+        <v>20.94838733382372</v>
       </c>
       <c r="C12">
-        <v>0.170543158184953</v>
+        <v>0.5453336560143358</v>
       </c>
       <c r="D12">
-        <v>1.520285778950338</v>
+        <v>4.861309071821434</v>
       </c>
       <c r="E12">
-        <v>2.045050993039214</v>
+        <v>6.539313254421834</v>
       </c>
       <c r="F12">
-        <v>0.8361497614841567</v>
+        <v>2.673696272888074</v>
       </c>
       <c r="G12">
-        <v>0.6224004741577157</v>
+        <v>1.990205468749376</v>
       </c>
       <c r="H12">
-        <v>0.05074192408200931</v>
+        <v>0.1622538204835792</v>
       </c>
       <c r="I12">
-        <v>11.7963982894749</v>
+        <v>37.72049887820235</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,28 +757,28 @@
         <v>2024081220</v>
       </c>
       <c r="B13">
-        <v>5.361652420794177</v>
+        <v>17.14457236530628</v>
       </c>
       <c r="C13">
-        <v>0.2558147372774295</v>
+        <v>0.8180004840215038</v>
       </c>
       <c r="D13">
-        <v>1.023865932762472</v>
+        <v>3.273942844287906</v>
       </c>
       <c r="E13">
-        <v>2.296749576797886</v>
+        <v>7.344151808812213</v>
       </c>
       <c r="F13">
-        <v>0.5085859373975797</v>
+        <v>1.626268867014395</v>
       </c>
       <c r="G13">
-        <v>0.5878226700378426</v>
+        <v>1.879638498263299</v>
       </c>
       <c r="H13">
-        <v>0.05074192408200931</v>
+        <v>0.1622538204835792</v>
       </c>
       <c r="I13">
-        <v>10.0852331991494</v>
+        <v>32.24882868818918</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -786,28 +786,28 @@
         <v>2024081221</v>
       </c>
       <c r="B14">
-        <v>3.921822486821316</v>
+        <v>12.54053119303733</v>
       </c>
       <c r="C14">
-        <v>0.1421192984874608</v>
+        <v>0.4544447133452799</v>
       </c>
       <c r="D14">
-        <v>0.8687347308287645</v>
+        <v>2.777890898183678</v>
       </c>
       <c r="E14">
-        <v>1.730427763340873</v>
+        <v>5.533265061433859</v>
       </c>
       <c r="F14">
-        <v>0.456865333594436</v>
+        <v>1.460885592402762</v>
       </c>
       <c r="G14">
-        <v>0.3112002370788579</v>
+        <v>0.9951027343746879</v>
       </c>
       <c r="H14">
-        <v>0.03382794938800621</v>
+        <v>0.1081692136557195</v>
       </c>
       <c r="I14">
-        <v>7.464997799539715</v>
+        <v>23.87028940643331</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -815,28 +815,28 @@
         <v>2024081222</v>
       </c>
       <c r="B15">
-        <v>2.756245873605189</v>
+        <v>8.813450244057705</v>
       </c>
       <c r="C15">
-        <v>0.170543158184953</v>
+        <v>0.5453336560143358</v>
       </c>
       <c r="D15">
-        <v>0.4343673654143823</v>
+        <v>1.388945449091839</v>
       </c>
       <c r="E15">
-        <v>0.8809450431553534</v>
+        <v>2.816934940366329</v>
       </c>
       <c r="F15">
-        <v>0.2499829183818612</v>
+        <v>0.7993524939562283</v>
       </c>
       <c r="G15">
-        <v>0.6569782782775888</v>
+        <v>2.100772439235452</v>
       </c>
       <c r="H15">
-        <v>0.03382794938800621</v>
+        <v>0.1081692136557195</v>
       </c>
       <c r="I15">
-        <v>5.182890586407335</v>
+        <v>16.57295843637761</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -844,28 +844,28 @@
         <v>2024081223</v>
       </c>
       <c r="B16">
-        <v>1.642091758030953</v>
+        <v>5.250799336944826</v>
       </c>
       <c r="C16">
-        <v>0.1989670178824451</v>
+        <v>0.6362225986833919</v>
       </c>
       <c r="D16">
-        <v>0.3723148846408991</v>
+        <v>1.190524670650147</v>
       </c>
       <c r="E16">
-        <v>0.3775478756380087</v>
+        <v>1.207257831585569</v>
       </c>
       <c r="F16">
-        <v>0.2241226164802894</v>
+        <v>0.7166608566504116</v>
       </c>
       <c r="G16">
-        <v>0.4149336494384772</v>
+        <v>1.326803645832917</v>
       </c>
       <c r="H16">
-        <v>0.03382794938800621</v>
+        <v>0.1081692136557195</v>
       </c>
       <c r="I16">
-        <v>3.263805751499079</v>
+        <v>10.43643815400298</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -873,25 +873,25 @@
         <v>2024081300</v>
       </c>
       <c r="B17">
-        <v>1.210142777839095</v>
+        <v>3.869586985264143</v>
       </c>
       <c r="C17">
-        <v>0.3126624566724139</v>
+        <v>0.9997783693596159</v>
       </c>
       <c r="D17">
-        <v>0.03102624038674159</v>
+        <v>0.09921038922084563</v>
       </c>
       <c r="E17">
-        <v>0.1887739378190043</v>
+        <v>0.6036289157927845</v>
       </c>
       <c r="F17">
-        <v>0.3534241259881487</v>
+        <v>1.130119043179495</v>
       </c>
       <c r="G17">
-        <v>0.5532448659179696</v>
+        <v>1.769071527777222</v>
       </c>
       <c r="I17">
-        <v>2.649274404623373</v>
+        <v>8.471395230594107</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -899,28 +899,28 @@
         <v>2024081301</v>
       </c>
       <c r="B18">
-        <v>0.7062023009485935</v>
+        <v>2.258172574970009</v>
       </c>
       <c r="C18">
-        <v>0.2273908775799374</v>
+        <v>0.7271115413524478</v>
       </c>
       <c r="D18">
-        <v>0.03102624038674159</v>
+        <v>0.09921038922084563</v>
       </c>
       <c r="E18">
-        <v>0.1258492918793362</v>
+        <v>0.4024192771951899</v>
       </c>
       <c r="F18">
-        <v>0.2758432202834331</v>
+        <v>0.8820441312620448</v>
       </c>
       <c r="G18">
-        <v>0.5186670617980963</v>
+        <v>1.658504557291146</v>
       </c>
       <c r="H18">
-        <v>0.0169139746940031</v>
+        <v>0.05408460682785973</v>
       </c>
       <c r="I18">
-        <v>1.901892967570141</v>
+        <v>6.081547078119543</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -928,25 +928,25 @@
         <v>2024081302</v>
       </c>
       <c r="B19">
-        <v>0.5416503084945526</v>
+        <v>1.731996440996414</v>
       </c>
       <c r="C19">
-        <v>0.3221370765715779</v>
+        <v>1.030074683582634</v>
       </c>
       <c r="D19">
-        <v>0.2482099230939327</v>
+        <v>0.793683113766765</v>
       </c>
       <c r="E19">
-        <v>0.03146232296983406</v>
+        <v>0.1006048192987975</v>
       </c>
       <c r="F19">
-        <v>0.181022113311003</v>
+        <v>0.5788414611407171</v>
       </c>
       <c r="G19">
-        <v>0.6915560823974619</v>
+        <v>2.211339409721528</v>
       </c>
       <c r="I19">
-        <v>2.016037826838363</v>
+        <v>6.446539928506855</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -954,28 +954,28 @@
         <v>2024081303</v>
       </c>
       <c r="B20">
-        <v>0.671920635854002</v>
+        <v>2.148552547058843</v>
       </c>
       <c r="C20">
-        <v>0.170543158184953</v>
+        <v>0.5453336560143358</v>
       </c>
       <c r="D20">
-        <v>0.1861574423204495</v>
+        <v>0.5952623353250736</v>
       </c>
       <c r="E20">
-        <v>0.2831609067285065</v>
+        <v>0.9054433736891769</v>
       </c>
       <c r="F20">
-        <v>0.2241226164802894</v>
+        <v>0.7166608566504116</v>
       </c>
       <c r="G20">
-        <v>0.5878226700378426</v>
+        <v>1.879638498263299</v>
       </c>
       <c r="H20">
-        <v>0.0169139746940031</v>
+        <v>0.05408460682785973</v>
       </c>
       <c r="I20">
-        <v>2.140641404300046</v>
+        <v>6.844975873828999</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -983,28 +983,28 @@
         <v>2024081304</v>
       </c>
       <c r="B21">
-        <v>0.9907401212337067</v>
+        <v>3.168018806632681</v>
       </c>
       <c r="C21">
-        <v>0.0473730994958203</v>
+        <v>0.1514815711150933</v>
       </c>
       <c r="D21">
-        <v>0.4033411250276407</v>
+        <v>1.289735059870993</v>
       </c>
       <c r="E21">
-        <v>0.1573116148491703</v>
+        <v>0.5030240964939872</v>
       </c>
       <c r="F21">
-        <v>0.4137648304251497</v>
+        <v>1.323066196893068</v>
       </c>
       <c r="G21">
-        <v>1.00275631947632</v>
+        <v>3.206442144096216</v>
       </c>
       <c r="H21">
-        <v>0.0169139746940031</v>
+        <v>0.05408460682785973</v>
       </c>
       <c r="I21">
-        <v>3.03220108520181</v>
+        <v>9.695852481929897</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1012,28 +1012,28 @@
         <v>2024081305</v>
       </c>
       <c r="B22">
-        <v>2.625975546245741</v>
+        <v>8.396894137995279</v>
       </c>
       <c r="C22">
-        <v>0.09474619899164059</v>
+        <v>0.3029631422301866</v>
       </c>
       <c r="D22">
-        <v>0.8066822500552815</v>
+        <v>2.579470119741985</v>
       </c>
       <c r="E22">
-        <v>1.132643626914026</v>
+        <v>3.621773494756708</v>
       </c>
       <c r="F22">
-        <v>0.8878703652873003</v>
+        <v>2.839079547499707</v>
       </c>
       <c r="G22">
-        <v>1.556001185394289</v>
+        <v>4.975513671873439</v>
       </c>
       <c r="H22">
-        <v>0.03382794938800621</v>
+        <v>0.1081692136557195</v>
       </c>
       <c r="I22">
-        <v>7.137747122276284</v>
+        <v>22.82386332775303</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1041,28 +1041,28 @@
         <v>2024081306</v>
       </c>
       <c r="B23">
-        <v>4.309205302390204</v>
+        <v>13.7792375084335</v>
       </c>
       <c r="C23">
-        <v>0.2084416377816092</v>
+        <v>0.6665189129064105</v>
       </c>
       <c r="D23">
-        <v>1.613364500110563</v>
+        <v>5.158940239483971</v>
       </c>
       <c r="E23">
-        <v>2.768684421345397</v>
+        <v>8.853224098294174</v>
       </c>
       <c r="F23">
-        <v>1.568858315362026</v>
+        <v>5.016625996552881</v>
       </c>
       <c r="G23">
-        <v>2.074668247192385</v>
+        <v>6.634018229164585</v>
       </c>
       <c r="H23">
-        <v>0.2198816710220403</v>
+        <v>0.7030998887621764</v>
       </c>
       <c r="I23">
-        <v>12.76310409520422</v>
+        <v>40.8116648735977</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1070,28 +1070,28 @@
         <v>2024081307</v>
       </c>
       <c r="B24">
-        <v>7.243715834487274</v>
+        <v>23.16271189762928</v>
       </c>
       <c r="C24">
-        <v>0.2084416377816092</v>
+        <v>0.6665189129064105</v>
       </c>
       <c r="D24">
-        <v>2.637230432873035</v>
+        <v>8.432883083771877</v>
       </c>
       <c r="E24">
-        <v>3.492317849651581</v>
+        <v>11.16713494216652</v>
       </c>
       <c r="F24">
-        <v>1.974003045153318</v>
+        <v>6.31212831434401</v>
       </c>
       <c r="G24">
-        <v>3.941869669665532</v>
+        <v>12.60463463541271</v>
       </c>
       <c r="H24">
-        <v>0.4397633420440807</v>
+        <v>1.406199777524353</v>
       </c>
       <c r="I24">
-        <v>19.93734181165643</v>
+        <v>63.75221156375515</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1099,28 +1099,28 @@
         <v>2024081308</v>
       </c>
       <c r="B25">
-        <v>8.330444617985837</v>
+        <v>26.63766678241322</v>
       </c>
       <c r="C25">
-        <v>0.1894923979832812</v>
+        <v>0.6059262844603731</v>
       </c>
       <c r="D25">
-        <v>2.420046750165845</v>
+        <v>7.738410359225959</v>
       </c>
       <c r="E25">
-        <v>1.950664024129712</v>
+        <v>6.237498796525441</v>
       </c>
       <c r="F25">
-        <v>1.637819120432884</v>
+        <v>5.237137029368393</v>
       </c>
       <c r="G25">
-        <v>2.282135071911624</v>
+        <v>7.297420052081044</v>
       </c>
       <c r="H25">
-        <v>0.2367956457160434</v>
+        <v>0.7571844955900361</v>
       </c>
       <c r="I25">
-        <v>17.04739762832522</v>
+        <v>54.51124379966447</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1128,28 +1128,28 @@
         <v>2024081309</v>
       </c>
       <c r="B26">
-        <v>6.736347191087312</v>
+        <v>21.54033548454402</v>
       </c>
       <c r="C26">
-        <v>0.2652893571765936</v>
+        <v>0.8482967982445224</v>
       </c>
       <c r="D26">
-        <v>2.823387875193485</v>
+        <v>9.028145419096953</v>
       </c>
       <c r="E26">
-        <v>1.667503117401205</v>
+        <v>5.332055422836265</v>
       </c>
       <c r="F26">
-        <v>2.215365862901322</v>
+        <v>7.083916929198299</v>
       </c>
       <c r="G26">
-        <v>5.636182071539312</v>
+        <v>18.02241618923046</v>
       </c>
       <c r="H26">
-        <v>0.2537096204100465</v>
+        <v>0.811269102417896</v>
       </c>
       <c r="I26">
-        <v>19.59778509570927</v>
+        <v>62.66643534556842</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1157,28 +1157,28 @@
         <v>2024081310</v>
       </c>
       <c r="B27">
-        <v>5.793601400986033</v>
+        <v>18.52578471698697</v>
       </c>
       <c r="C27">
-        <v>0.5211040944540231</v>
+        <v>1.666297282266026</v>
       </c>
       <c r="D27">
-        <v>2.54415171171281</v>
+        <v>8.135251916109343</v>
       </c>
       <c r="E27">
-        <v>1.289955241763197</v>
+        <v>4.124797591250696</v>
       </c>
       <c r="F27">
-        <v>2.594650290791043</v>
+        <v>8.296727609683611</v>
       </c>
       <c r="G27">
-        <v>5.082937205621345</v>
+        <v>16.25334466145323</v>
       </c>
       <c r="H27">
-        <v>0.3721074432680683</v>
+        <v>1.189861350212914</v>
       </c>
       <c r="I27">
-        <v>18.19850738859652</v>
+        <v>58.19206512796278</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1186,28 +1186,28 @@
         <v>2024081311</v>
       </c>
       <c r="B28">
-        <v>6.102136386837361</v>
+        <v>19.51236496818745</v>
       </c>
       <c r="C28">
-        <v>0.4832056148573668</v>
+        <v>1.545112025373952</v>
       </c>
       <c r="D28">
-        <v>2.420046750165845</v>
+        <v>7.738410359225959</v>
       </c>
       <c r="E28">
-        <v>1.824814732250376</v>
+        <v>5.835079519330253</v>
       </c>
       <c r="F28">
-        <v>2.137784957196606</v>
+        <v>6.835842017280848</v>
       </c>
       <c r="G28">
-        <v>5.912804504498298</v>
+        <v>18.90695195311906</v>
       </c>
       <c r="H28">
-        <v>0.3890214179620714</v>
+        <v>1.243945957040774</v>
       </c>
       <c r="I28">
-        <v>19.26981436376792</v>
+        <v>61.6177067995583</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1215,28 +1215,28 @@
         <v>2024081312</v>
       </c>
       <c r="B29">
-        <v>6.081567387780606</v>
+        <v>19.44659295144075</v>
       </c>
       <c r="C29">
-        <v>0.4453071352607106</v>
+        <v>1.423926768481877</v>
       </c>
       <c r="D29">
-        <v>2.047731865524945</v>
+        <v>6.547885688575812</v>
       </c>
       <c r="E29">
-        <v>1.227030595823528</v>
+        <v>3.923587952653101</v>
       </c>
       <c r="F29">
-        <v>1.956762843885603</v>
+        <v>6.257000556140132</v>
       </c>
       <c r="G29">
-        <v>4.425958927343757</v>
+        <v>14.15257222221778</v>
       </c>
       <c r="H29">
-        <v>0.2367956457160434</v>
+        <v>0.7571844955900361</v>
       </c>
       <c r="I29">
-        <v>16.42115440133519</v>
+        <v>52.50875063509949</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1244,28 +1244,28 @@
         <v>2024081313</v>
       </c>
       <c r="B30">
-        <v>6.434668538254903</v>
+        <v>20.57567923892576</v>
       </c>
       <c r="C30">
-        <v>0.4642563750590387</v>
+        <v>1.484519396927914</v>
       </c>
       <c r="D30">
-        <v>1.985679384751462</v>
+        <v>6.34946491013412</v>
       </c>
       <c r="E30">
-        <v>1.447266856612366</v>
+        <v>4.627821687744682</v>
       </c>
       <c r="F30">
-        <v>2.439488479381612</v>
+        <v>7.80057778584871</v>
       </c>
       <c r="G30">
-        <v>3.665247236706549</v>
+        <v>11.7200988715241</v>
       </c>
       <c r="H30">
-        <v>0.3551934685740652</v>
+        <v>1.135776743385054</v>
       </c>
       <c r="I30">
-        <v>16.79180033933999</v>
+        <v>53.69393863449034</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1273,28 +1273,28 @@
         <v>2024081314</v>
       </c>
       <c r="B31">
-        <v>6.204981382121134</v>
+        <v>19.84122505192096</v>
       </c>
       <c r="C31">
-        <v>0.3695101760673983</v>
+        <v>1.181556254697728</v>
       </c>
       <c r="D31">
-        <v>2.823387875193485</v>
+        <v>9.028145419096953</v>
       </c>
       <c r="E31">
-        <v>1.32141756473303</v>
+        <v>4.225402410549491</v>
       </c>
       <c r="F31">
-        <v>2.310186969873752</v>
+        <v>7.387119599319627</v>
       </c>
       <c r="G31">
-        <v>3.492358216107182</v>
+        <v>11.16726401909372</v>
       </c>
       <c r="H31">
-        <v>0.4059353926560745</v>
+        <v>1.298030563868633</v>
       </c>
       <c r="I31">
-        <v>16.92777757675206</v>
+        <v>54.12874331854711</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1302,28 +1302,28 @@
         <v>2024081315</v>
       </c>
       <c r="B32">
-        <v>6.571795198633274</v>
+        <v>21.01415935057042</v>
       </c>
       <c r="C32">
-        <v>0.4263578954623824</v>
+        <v>1.36333414003584</v>
       </c>
       <c r="D32">
-        <v>2.792361634806744</v>
+        <v>8.928935029876108</v>
       </c>
       <c r="E32">
-        <v>1.384342210672699</v>
+        <v>4.426612049147087</v>
       </c>
       <c r="F32">
-        <v>2.249846265436751</v>
+        <v>7.194172445606054</v>
       </c>
       <c r="G32">
-        <v>3.457780411987309</v>
+        <v>11.05669704860764</v>
       </c>
       <c r="H32">
-        <v>0.2367956457160434</v>
+        <v>0.7571844955900361</v>
       </c>
       <c r="I32">
-        <v>17.1192792627152</v>
+        <v>54.74109455943319</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1331,28 +1331,28 @@
         <v>2024081316</v>
       </c>
       <c r="B33">
-        <v>7.63795498307508</v>
+        <v>24.42334221860767</v>
       </c>
       <c r="C33">
-        <v>0.3884594158657262</v>
+        <v>1.242148883143765</v>
       </c>
       <c r="D33">
-        <v>3.5059651637018</v>
+        <v>11.21077398195556</v>
       </c>
       <c r="E33">
-        <v>1.32141756473303</v>
+        <v>4.225402410549491</v>
       </c>
       <c r="F33">
-        <v>2.241226164802893</v>
+        <v>7.166608566504115</v>
       </c>
       <c r="G33">
-        <v>2.697068721350103</v>
+        <v>8.624223697913962</v>
       </c>
       <c r="H33">
-        <v>0.3044515444920559</v>
+        <v>0.9735229229014749</v>
       </c>
       <c r="I33">
-        <v>18.09654355802069</v>
+        <v>57.86602268157604</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1360,28 +1360,28 @@
         <v>2024081317</v>
       </c>
       <c r="B34">
-        <v>8.649264103365537</v>
+        <v>27.65713304198705</v>
       </c>
       <c r="C34">
-        <v>0.3695101760673983</v>
+        <v>1.181556254697728</v>
       </c>
       <c r="D34">
-        <v>2.420046750165845</v>
+        <v>7.738410359225959</v>
       </c>
       <c r="E34">
-        <v>2.233824930858218</v>
+        <v>7.14294217021462</v>
       </c>
       <c r="F34">
-        <v>1.517137711558882</v>
+        <v>4.851242721941247</v>
       </c>
       <c r="G34">
-        <v>1.486845577154543</v>
+        <v>4.754379730901285</v>
       </c>
       <c r="H34">
-        <v>0.4905052661260899</v>
+        <v>1.568453598007932</v>
       </c>
       <c r="I34">
-        <v>17.16713451529651</v>
+        <v>54.89411787697583</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1389,28 +1389,28 @@
         <v>2024081318</v>
       </c>
       <c r="B35">
-        <v>8.71782743355473</v>
+        <v>27.87637309780939</v>
       </c>
       <c r="C35">
-        <v>0.3600355561682341</v>
+        <v>1.151259940474709</v>
       </c>
       <c r="D35">
-        <v>2.14081058668517</v>
+        <v>6.845516856238347</v>
       </c>
       <c r="E35">
-        <v>2.233824930858218</v>
+        <v>7.14294217021462</v>
       </c>
       <c r="F35">
-        <v>1.232674390641592</v>
+        <v>3.941634711577264</v>
       </c>
       <c r="G35">
-        <v>0.3112002370788579</v>
+        <v>0.9951027343746879</v>
       </c>
       <c r="H35">
-        <v>0.2029676963280372</v>
+        <v>0.6490152819343167</v>
       </c>
       <c r="I35">
-        <v>15.19934083131484</v>
+        <v>48.60184479262334</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1418,28 +1418,28 @@
         <v>2024081319</v>
       </c>
       <c r="B36">
-        <v>6.551226199576516</v>
+        <v>20.94838733382372</v>
       </c>
       <c r="C36">
-        <v>0.170543158184953</v>
+        <v>0.5453336560143358</v>
       </c>
       <c r="D36">
-        <v>1.520285778950338</v>
+        <v>4.861309071821434</v>
       </c>
       <c r="E36">
-        <v>2.045050993039214</v>
+        <v>6.539313254421834</v>
       </c>
       <c r="F36">
-        <v>0.8361497614841567</v>
+        <v>2.673696272888074</v>
       </c>
       <c r="G36">
-        <v>0.6224004741577157</v>
+        <v>1.990205468749376</v>
       </c>
       <c r="H36">
-        <v>0.05074192408200931</v>
+        <v>0.1622538204835792</v>
       </c>
       <c r="I36">
-        <v>11.7963982894749</v>
+        <v>37.72049887820235</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1447,28 +1447,28 @@
         <v>2024081320</v>
       </c>
       <c r="B37">
-        <v>5.361652420794177</v>
+        <v>17.14457236530628</v>
       </c>
       <c r="C37">
-        <v>0.2558147372774295</v>
+        <v>0.8180004840215038</v>
       </c>
       <c r="D37">
-        <v>1.023865932762472</v>
+        <v>3.273942844287906</v>
       </c>
       <c r="E37">
-        <v>2.296749576797886</v>
+        <v>7.344151808812213</v>
       </c>
       <c r="F37">
-        <v>0.5085859373975797</v>
+        <v>1.626268867014395</v>
       </c>
       <c r="G37">
-        <v>0.5878226700378426</v>
+        <v>1.879638498263299</v>
       </c>
       <c r="H37">
-        <v>0.05074192408200931</v>
+        <v>0.1622538204835792</v>
       </c>
       <c r="I37">
-        <v>10.0852331991494</v>
+        <v>32.24882868818918</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1476,28 +1476,28 @@
         <v>2024081321</v>
       </c>
       <c r="B38">
-        <v>3.921822486821316</v>
+        <v>12.54053119303733</v>
       </c>
       <c r="C38">
-        <v>0.1421192984874608</v>
+        <v>0.4544447133452799</v>
       </c>
       <c r="D38">
-        <v>0.8687347308287645</v>
+        <v>2.777890898183678</v>
       </c>
       <c r="E38">
-        <v>1.730427763340873</v>
+        <v>5.533265061433859</v>
       </c>
       <c r="F38">
-        <v>0.456865333594436</v>
+        <v>1.460885592402762</v>
       </c>
       <c r="G38">
-        <v>0.3112002370788579</v>
+        <v>0.9951027343746879</v>
       </c>
       <c r="H38">
-        <v>0.03382794938800621</v>
+        <v>0.1081692136557195</v>
       </c>
       <c r="I38">
-        <v>7.464997799539715</v>
+        <v>23.87028940643331</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1505,28 +1505,28 @@
         <v>2024081322</v>
       </c>
       <c r="B39">
-        <v>2.756245873605189</v>
+        <v>8.813450244057705</v>
       </c>
       <c r="C39">
-        <v>0.170543158184953</v>
+        <v>0.5453336560143358</v>
       </c>
       <c r="D39">
-        <v>0.4343673654143823</v>
+        <v>1.388945449091839</v>
       </c>
       <c r="E39">
-        <v>0.8809450431553534</v>
+        <v>2.816934940366329</v>
       </c>
       <c r="F39">
-        <v>0.2499829183818612</v>
+        <v>0.7993524939562283</v>
       </c>
       <c r="G39">
-        <v>0.6569782782775888</v>
+        <v>2.100772439235452</v>
       </c>
       <c r="H39">
-        <v>0.03382794938800621</v>
+        <v>0.1081692136557195</v>
       </c>
       <c r="I39">
-        <v>5.182890586407335</v>
+        <v>16.57295843637761</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1534,28 +1534,28 @@
         <v>2024081323</v>
       </c>
       <c r="B40">
-        <v>1.642091758030953</v>
+        <v>5.250799336944826</v>
       </c>
       <c r="C40">
-        <v>0.1989670178824451</v>
+        <v>0.6362225986833919</v>
       </c>
       <c r="D40">
-        <v>0.3723148846408991</v>
+        <v>1.190524670650147</v>
       </c>
       <c r="E40">
-        <v>0.3775478756380087</v>
+        <v>1.207257831585569</v>
       </c>
       <c r="F40">
-        <v>0.2241226164802894</v>
+        <v>0.7166608566504116</v>
       </c>
       <c r="G40">
-        <v>0.4149336494384772</v>
+        <v>1.326803645832917</v>
       </c>
       <c r="H40">
-        <v>0.03382794938800621</v>
+        <v>0.1081692136557195</v>
       </c>
       <c r="I40">
-        <v>3.263805751499079</v>
+        <v>10.43643815400298</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1563,25 +1563,25 @@
         <v>2024081400</v>
       </c>
       <c r="B41">
-        <v>1.210142777839095</v>
+        <v>3.869586985264143</v>
       </c>
       <c r="C41">
-        <v>0.3126624566724139</v>
+        <v>0.9997783693596159</v>
       </c>
       <c r="D41">
-        <v>0.03102624038674159</v>
+        <v>0.09921038922084563</v>
       </c>
       <c r="E41">
-        <v>0.1887739378190043</v>
+        <v>0.6036289157927845</v>
       </c>
       <c r="F41">
-        <v>0.3534241259881487</v>
+        <v>1.130119043179495</v>
       </c>
       <c r="G41">
-        <v>0.5532448659179696</v>
+        <v>1.769071527777222</v>
       </c>
       <c r="I41">
-        <v>2.649274404623373</v>
+        <v>8.471395230594107</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1589,28 +1589,28 @@
         <v>2024081401</v>
       </c>
       <c r="B42">
-        <v>0.7062023009485935</v>
+        <v>2.258172574970009</v>
       </c>
       <c r="C42">
-        <v>0.2273908775799374</v>
+        <v>0.7271115413524478</v>
       </c>
       <c r="D42">
-        <v>0.03102624038674159</v>
+        <v>0.09921038922084563</v>
       </c>
       <c r="E42">
-        <v>0.1258492918793362</v>
+        <v>0.4024192771951899</v>
       </c>
       <c r="F42">
-        <v>0.2758432202834331</v>
+        <v>0.8820441312620448</v>
       </c>
       <c r="G42">
-        <v>0.5186670617980963</v>
+        <v>1.658504557291146</v>
       </c>
       <c r="H42">
-        <v>0.0169139746940031</v>
+        <v>0.05408460682785973</v>
       </c>
       <c r="I42">
-        <v>1.901892967570141</v>
+        <v>6.081547078119543</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1618,25 +1618,25 @@
         <v>2024081402</v>
       </c>
       <c r="B43">
-        <v>0.5416503084945526</v>
+        <v>1.731996440996414</v>
       </c>
       <c r="C43">
-        <v>0.3221370765715779</v>
+        <v>1.030074683582634</v>
       </c>
       <c r="D43">
-        <v>0.2482099230939327</v>
+        <v>0.793683113766765</v>
       </c>
       <c r="E43">
-        <v>0.03146232296983406</v>
+        <v>0.1006048192987975</v>
       </c>
       <c r="F43">
-        <v>0.181022113311003</v>
+        <v>0.5788414611407171</v>
       </c>
       <c r="G43">
-        <v>0.6915560823974619</v>
+        <v>2.211339409721528</v>
       </c>
       <c r="I43">
-        <v>2.016037826838363</v>
+        <v>6.446539928506855</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1644,28 +1644,28 @@
         <v>2024081403</v>
       </c>
       <c r="B44">
-        <v>0.671920635854002</v>
+        <v>2.148552547058843</v>
       </c>
       <c r="C44">
-        <v>0.170543158184953</v>
+        <v>0.5453336560143358</v>
       </c>
       <c r="D44">
-        <v>0.1861574423204495</v>
+        <v>0.5952623353250736</v>
       </c>
       <c r="E44">
-        <v>0.2831609067285065</v>
+        <v>0.9054433736891769</v>
       </c>
       <c r="F44">
-        <v>0.2241226164802894</v>
+        <v>0.7166608566504116</v>
       </c>
       <c r="G44">
-        <v>0.5878226700378426</v>
+        <v>1.879638498263299</v>
       </c>
       <c r="H44">
-        <v>0.0169139746940031</v>
+        <v>0.05408460682785973</v>
       </c>
       <c r="I44">
-        <v>2.140641404300046</v>
+        <v>6.844975873828999</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1673,28 +1673,28 @@
         <v>2024081404</v>
       </c>
       <c r="B45">
-        <v>0.9907401212337067</v>
+        <v>3.168018806632681</v>
       </c>
       <c r="C45">
-        <v>0.0473730994958203</v>
+        <v>0.1514815711150933</v>
       </c>
       <c r="D45">
-        <v>0.4033411250276407</v>
+        <v>1.289735059870993</v>
       </c>
       <c r="E45">
-        <v>0.1573116148491703</v>
+        <v>0.5030240964939872</v>
       </c>
       <c r="F45">
-        <v>0.4137648304251497</v>
+        <v>1.323066196893068</v>
       </c>
       <c r="G45">
-        <v>1.00275631947632</v>
+        <v>3.206442144096216</v>
       </c>
       <c r="H45">
-        <v>0.0169139746940031</v>
+        <v>0.05408460682785973</v>
       </c>
       <c r="I45">
-        <v>3.03220108520181</v>
+        <v>9.695852481929897</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1702,28 +1702,28 @@
         <v>2024081405</v>
       </c>
       <c r="B46">
-        <v>2.625975546245741</v>
+        <v>8.396894137995279</v>
       </c>
       <c r="C46">
-        <v>0.09474619899164059</v>
+        <v>0.3029631422301866</v>
       </c>
       <c r="D46">
-        <v>0.8066822500552815</v>
+        <v>2.579470119741985</v>
       </c>
       <c r="E46">
-        <v>1.132643626914026</v>
+        <v>3.621773494756708</v>
       </c>
       <c r="F46">
-        <v>0.8878703652873003</v>
+        <v>2.839079547499707</v>
       </c>
       <c r="G46">
-        <v>1.556001185394289</v>
+        <v>4.975513671873439</v>
       </c>
       <c r="H46">
-        <v>0.03382794938800621</v>
+        <v>0.1081692136557195</v>
       </c>
       <c r="I46">
-        <v>7.137747122276284</v>
+        <v>22.82386332775303</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1731,28 +1731,28 @@
         <v>2024081406</v>
       </c>
       <c r="B47">
-        <v>4.309205302390204</v>
+        <v>13.7792375084335</v>
       </c>
       <c r="C47">
-        <v>0.2084416377816092</v>
+        <v>0.6665189129064105</v>
       </c>
       <c r="D47">
-        <v>1.613364500110563</v>
+        <v>5.158940239483971</v>
       </c>
       <c r="E47">
-        <v>2.768684421345397</v>
+        <v>8.853224098294174</v>
       </c>
       <c r="F47">
-        <v>1.568858315362026</v>
+        <v>5.016625996552881</v>
       </c>
       <c r="G47">
-        <v>2.074668247192385</v>
+        <v>6.634018229164585</v>
       </c>
       <c r="H47">
-        <v>0.2198816710220403</v>
+        <v>0.7030998887621764</v>
       </c>
       <c r="I47">
-        <v>12.76310409520422</v>
+        <v>40.8116648735977</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1760,28 +1760,28 @@
         <v>2024081407</v>
       </c>
       <c r="B48">
-        <v>7.243715834487274</v>
+        <v>23.16271189762928</v>
       </c>
       <c r="C48">
-        <v>0.2084416377816092</v>
+        <v>0.6665189129064105</v>
       </c>
       <c r="D48">
-        <v>2.637230432873035</v>
+        <v>8.432883083771877</v>
       </c>
       <c r="E48">
-        <v>3.492317849651581</v>
+        <v>11.16713494216652</v>
       </c>
       <c r="F48">
-        <v>1.974003045153318</v>
+        <v>6.31212831434401</v>
       </c>
       <c r="G48">
-        <v>3.941869669665532</v>
+        <v>12.60463463541271</v>
       </c>
       <c r="H48">
-        <v>0.4397633420440807</v>
+        <v>1.406199777524353</v>
       </c>
       <c r="I48">
-        <v>19.93734181165643</v>
+        <v>63.75221156375515</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1789,28 +1789,28 @@
         <v>2024081408</v>
       </c>
       <c r="B49">
-        <v>8.330444617985837</v>
+        <v>26.63766678241322</v>
       </c>
       <c r="C49">
-        <v>0.1894923979832812</v>
+        <v>0.6059262844603731</v>
       </c>
       <c r="D49">
-        <v>2.420046750165845</v>
+        <v>7.738410359225959</v>
       </c>
       <c r="E49">
-        <v>1.950664024129712</v>
+        <v>6.237498796525441</v>
       </c>
       <c r="F49">
-        <v>1.637819120432884</v>
+        <v>5.237137029368393</v>
       </c>
       <c r="G49">
-        <v>2.282135071911624</v>
+        <v>7.297420052081044</v>
       </c>
       <c r="H49">
-        <v>0.2367956457160434</v>
+        <v>0.7571844955900361</v>
       </c>
       <c r="I49">
-        <v>17.04739762832522</v>
+        <v>54.51124379966447</v>
       </c>
     </row>
   </sheetData>
